--- a/data/trans_orig/P69$dolorEspalda-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P69$dolorEspalda-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>68164</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59803</v>
+        <v>59592</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73811</v>
+        <v>74292</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8077698301068232</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7086926430153168</v>
+        <v>0.7061860168436219</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8746918627167157</v>
+        <v>0.8803969765727813</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -765,19 +765,19 @@
         <v>38460</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32634</v>
+        <v>32945</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42385</v>
+        <v>42475</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8458805034299347</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7177603875841378</v>
+        <v>0.7245863109914616</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9322047481847781</v>
+        <v>0.9342032851107356</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>98</v>
@@ -786,19 +786,19 @@
         <v>106623</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>96265</v>
+        <v>96913</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114491</v>
+        <v>115300</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8211141159184516</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7413443097020727</v>
+        <v>0.7463318998555827</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8817023448541681</v>
+        <v>0.887935465974275</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>35428</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25627</v>
+        <v>25886</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45225</v>
+        <v>44820</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4198397153276528</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3036924174502449</v>
+        <v>0.3067567979341498</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5359416725421395</v>
+        <v>0.5311363139773241</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -836,19 +836,19 @@
         <v>21434</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14734</v>
+        <v>14412</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28519</v>
+        <v>28458</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4714133255501476</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3240507665882608</v>
+        <v>0.3169863372961911</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6272536901258723</v>
+        <v>0.6259096715705743</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>55</v>
@@ -857,19 +857,19 @@
         <v>56862</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44394</v>
+        <v>46312</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68146</v>
+        <v>68645</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4378979896937773</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.341882419937326</v>
+        <v>0.3566548207035348</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.524799290018429</v>
+        <v>0.5286385137208032</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>31304</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21660</v>
+        <v>22104</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40294</v>
+        <v>40972</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3709660219230305</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2566775126517645</v>
+        <v>0.2619384691134773</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4774986398386684</v>
+        <v>0.4855321150864665</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -907,19 +907,19 @@
         <v>16175</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10029</v>
+        <v>10288</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23449</v>
+        <v>23394</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3557520539912114</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2205772937247595</v>
+        <v>0.2262811875276701</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5157399824475301</v>
+        <v>0.5145317704564977</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>45</v>
@@ -928,19 +928,19 @@
         <v>47479</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37154</v>
+        <v>37072</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>59114</v>
+        <v>58810</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3656389175003431</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2861255980954588</v>
+        <v>0.2854957937164954</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4552384568473079</v>
+        <v>0.4528993060839474</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>42550</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33189</v>
+        <v>33061</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52839</v>
+        <v>52634</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5042355780886764</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3933065096958381</v>
+        <v>0.3917909090992794</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6261606776235124</v>
+        <v>0.6237341838124404</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -978,19 +978,19 @@
         <v>29083</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21537</v>
+        <v>21941</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34852</v>
+        <v>35327</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6396416682685274</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4736822391832142</v>
+        <v>0.4825604954885161</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7665339267371293</v>
+        <v>0.7769860834002059</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -999,19 +999,19 @@
         <v>71633</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60033</v>
+        <v>59200</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82626</v>
+        <v>82679</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5516474291645086</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4623152870819427</v>
+        <v>0.4559070948604284</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6363107283338941</v>
+        <v>0.6367144602377556</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>27640</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19054</v>
+        <v>19137</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36494</v>
+        <v>38154</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3275448574971075</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2257957009959027</v>
+        <v>0.2267876438885892</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4324643336675486</v>
+        <v>0.4521392989586431</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -1049,19 +1049,19 @@
         <v>15582</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9031</v>
+        <v>10036</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22031</v>
+        <v>22354</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3427069720554346</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1986189868169988</v>
+        <v>0.2207326283821588</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4845467060770333</v>
+        <v>0.4916605499134766</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -1070,19 +1070,19 @@
         <v>43222</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32820</v>
+        <v>32750</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>55108</v>
+        <v>55949</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3328538056875419</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2527459318404047</v>
+        <v>0.2522128197785576</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4243919755739295</v>
+        <v>0.4308683764161654</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>16675</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9546</v>
+        <v>9676</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25214</v>
+        <v>25907</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1976046867328264</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1131282416217375</v>
+        <v>0.1146642311624307</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.29880057909702</v>
+        <v>0.3070037563960895</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -1120,19 +1120,19 @@
         <v>11178</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6003</v>
+        <v>6108</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17941</v>
+        <v>17684</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2458446624869899</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1320231909730347</v>
+        <v>0.1343297544906725</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3945848434002958</v>
+        <v>0.3889314958535497</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>26</v>
@@ -1141,19 +1141,19 @@
         <v>27853</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>18981</v>
+        <v>19298</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>38553</v>
+        <v>38169</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2144957035498713</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1461737149479506</v>
+        <v>0.1486164948992115</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2968970088952398</v>
+        <v>0.2939399813928314</v>
       </c>
     </row>
     <row r="10">
@@ -1170,19 +1170,19 @@
         <v>6269</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1932</v>
+        <v>1843</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14596</v>
+        <v>14647</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07429565483502497</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02289411801987613</v>
+        <v>0.02184421344683612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.172970405489712</v>
+        <v>0.1735771429272465</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1191,19 +1191,19 @@
         <v>6466</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2985</v>
+        <v>2366</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12460</v>
+        <v>12571</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1422046758560891</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06564312657405987</v>
+        <v>0.05203934510977994</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2740363006067165</v>
+        <v>0.2764753758913062</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1212,19 +1212,19 @@
         <v>12735</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6368</v>
+        <v>6635</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21985</v>
+        <v>21321</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09807370194560727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04903701708320228</v>
+        <v>0.05109450099825028</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.169308281775229</v>
+        <v>0.1641923216214465</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>133600</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>120569</v>
+        <v>121563</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>142888</v>
+        <v>143685</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7745910981212009</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6990385760850759</v>
+        <v>0.7048030511256452</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8284416203209658</v>
+        <v>0.8330618779000328</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -1266,19 +1266,19 @@
         <v>53950</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46694</v>
+        <v>47010</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>59459</v>
+        <v>59616</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8238023478660906</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7130103105438582</v>
+        <v>0.7178287564155841</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9079213125703079</v>
+        <v>0.9103137234810519</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>177</v>
@@ -1287,19 +1287,19 @@
         <v>187550</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>173772</v>
+        <v>174556</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>199579</v>
+        <v>199653</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7881341189413031</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7302351464381198</v>
+        <v>0.7335299176679645</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8386837889111655</v>
+        <v>0.838995685070255</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>65737</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>51516</v>
+        <v>52120</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>78382</v>
+        <v>78996</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3811331321237303</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2986808289587881</v>
+        <v>0.3021863027104707</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.454448909391853</v>
+        <v>0.4580086285121875</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -1337,19 +1337,19 @@
         <v>28189</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20545</v>
+        <v>20525</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37190</v>
+        <v>36278</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4304372475801411</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3137139500401687</v>
+        <v>0.3134095722937693</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5678883835663421</v>
+        <v>0.5539511282953115</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>85</v>
@@ -1358,19 +1358,19 @@
         <v>93926</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>79829</v>
+        <v>78620</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>110982</v>
+        <v>109619</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3947017097478382</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3354644801999501</v>
+        <v>0.330383516036708</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4663749727268793</v>
+        <v>0.4606473601694651</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>57496</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45005</v>
+        <v>44726</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72759</v>
+        <v>70211</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.333355425295165</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2609342455867413</v>
+        <v>0.2593133959260953</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4218435277076494</v>
+        <v>0.4070704578418903</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1408,19 +1408,19 @@
         <v>19069</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11685</v>
+        <v>11732</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26835</v>
+        <v>25960</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2911766384673027</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1784249550431364</v>
+        <v>0.179147173099177</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4097639175240407</v>
+        <v>0.3963975092999226</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -1429,19 +1429,19 @@
         <v>76565</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62163</v>
+        <v>60499</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91845</v>
+        <v>90945</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3217477504009562</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2612235560588556</v>
+        <v>0.2542314545937843</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3859568239737559</v>
+        <v>0.3821758974832928</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>90534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>77499</v>
+        <v>76350</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104389</v>
+        <v>103612</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5249034062296989</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4493257286609467</v>
+        <v>0.4426650570773973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6052311068760599</v>
+        <v>0.6007253968995875</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -1479,19 +1479,19 @@
         <v>30882</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22738</v>
+        <v>23347</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>38803</v>
+        <v>39678</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4715669062236303</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3472018091586528</v>
+        <v>0.3565053927183102</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5925101898638995</v>
+        <v>0.6058668480574463</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>114</v>
@@ -1500,19 +1500,19 @@
         <v>121417</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>105704</v>
+        <v>106071</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>138320</v>
+        <v>136116</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5102251094215878</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4441961103377865</v>
+        <v>0.4457402991963925</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5812551442267015</v>
+        <v>0.5719951703935912</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>44690</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>32831</v>
+        <v>32742</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>56871</v>
+        <v>57102</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2591064239489195</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1903496302334016</v>
+        <v>0.1898342906896194</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3297265651563647</v>
+        <v>0.3310680405263621</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>22</v>
@@ -1550,19 +1550,19 @@
         <v>22040</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14669</v>
+        <v>15275</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>30706</v>
+        <v>30378</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3365487276749423</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.223991488064442</v>
+        <v>0.2332460940966441</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.468873056083261</v>
+        <v>0.4638605648944127</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>61</v>
@@ -1571,19 +1571,19 @@
         <v>66730</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>53364</v>
+        <v>53799</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>82048</v>
+        <v>81790</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2804186795237156</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2242511984925214</v>
+        <v>0.2260765585323768</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3447855559069559</v>
+        <v>0.343702932286658</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>37213</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25529</v>
+        <v>26094</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48698</v>
+        <v>49371</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2157552732794112</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.148015747376935</v>
+        <v>0.1512909197584424</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2823452360538762</v>
+        <v>0.2862449480100718</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1621,19 +1621,19 @@
         <v>10086</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5279</v>
+        <v>5243</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17092</v>
+        <v>17028</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1540065122192594</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08060351594705509</v>
+        <v>0.08006581495155725</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2609976399174602</v>
+        <v>0.2600200104237556</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -1642,19 +1642,19 @@
         <v>47299</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35082</v>
+        <v>34572</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60500</v>
+        <v>60858</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1987619077179118</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.147425272393009</v>
+        <v>0.1452813439921046</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2542368181349958</v>
+        <v>0.2557398862309134</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>13582</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6863</v>
+        <v>7687</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22657</v>
+        <v>22770</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07874700492333675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03978892910992397</v>
+        <v>0.04456639707175014</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1313596195406741</v>
+        <v>0.1320187162534091</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1692,19 +1692,19 @@
         <v>7859</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3889</v>
+        <v>3730</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13758</v>
+        <v>14092</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1200123607413285</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0593875561111802</v>
+        <v>0.05695447691026206</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2100787554880109</v>
+        <v>0.2151787559615536</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -1713,19 +1713,19 @@
         <v>21442</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13725</v>
+        <v>13881</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30963</v>
+        <v>32074</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09010330202794391</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05767492491424801</v>
+        <v>0.05833023080437712</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1301151989294978</v>
+        <v>0.1347845746386435</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>101492</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>89046</v>
+        <v>89334</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>111904</v>
+        <v>111872</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6909624867542099</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6062313555281833</v>
+        <v>0.6081878935625</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7618479885523088</v>
+        <v>0.7616268620079024</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>57</v>
@@ -1767,19 +1767,19 @@
         <v>56819</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48947</v>
+        <v>48481</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63904</v>
+        <v>64144</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7304804579636835</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6292712555183269</v>
+        <v>0.623290324370618</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8215663055104746</v>
+        <v>0.8246585796971763</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>155</v>
@@ -1788,19 +1788,19 @@
         <v>158311</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>144681</v>
+        <v>143858</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>171005</v>
+        <v>171207</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7046441485807875</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6439772537841469</v>
+        <v>0.6403133442601018</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7611457628827852</v>
+        <v>0.7620446921353746</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>66116</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53425</v>
+        <v>53152</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78147</v>
+        <v>78253</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4501234847221322</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3637197271879106</v>
+        <v>0.3618602366975435</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5320291875411038</v>
+        <v>0.532750117040063</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -1838,19 +1838,19 @@
         <v>46357</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37936</v>
+        <v>37539</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54410</v>
+        <v>54378</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5959790048166027</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4877124279223891</v>
+        <v>0.4826120486135065</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6995110694029008</v>
+        <v>0.6990976294477609</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>109</v>
@@ -1859,19 +1859,19 @@
         <v>112473</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>97334</v>
+        <v>96525</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>126516</v>
+        <v>127864</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5006206595617592</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.433235756295852</v>
+        <v>0.4296325324633858</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5631248945521965</v>
+        <v>0.5691259575057181</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>38733</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29236</v>
+        <v>28067</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51921</v>
+        <v>50560</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2636931452714317</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1990391698847432</v>
+        <v>0.1910818468664172</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3534778952484686</v>
+        <v>0.3442138926923108</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>23</v>
@@ -1909,19 +1909,19 @@
         <v>23068</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15736</v>
+        <v>16159</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>31789</v>
+        <v>32888</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2965629412813916</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2023077941318243</v>
+        <v>0.2077444817291303</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4086870997362155</v>
+        <v>0.4228184290665167</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>59</v>
@@ -1930,19 +1930,19 @@
         <v>61800</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>48980</v>
+        <v>49708</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>75740</v>
+        <v>77436</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2750731179662104</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2180103071882309</v>
+        <v>0.2212491337954957</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3371214776973959</v>
+        <v>0.3446698692811005</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>75159</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>64058</v>
+        <v>63055</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>87036</v>
+        <v>88765</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5116859427923049</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4361113112159636</v>
+        <v>0.4292790364163031</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.592544780989756</v>
+        <v>0.6043151500944851</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>39</v>
@@ -1980,19 +1980,19 @@
         <v>38766</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>30519</v>
+        <v>30051</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>46951</v>
+        <v>47154</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4983839229572222</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3923658936177157</v>
+        <v>0.3863434281153849</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6036206888301976</v>
+        <v>0.6062283645150333</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>111</v>
@@ -2001,19 +2001,19 @@
         <v>113925</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>98832</v>
+        <v>98712</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>129556</v>
+        <v>128733</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5070806016924461</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4399034823388509</v>
+        <v>0.4393669602162251</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5766570645505579</v>
+        <v>0.5729936375480942</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>42560</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31852</v>
+        <v>32409</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55434</v>
+        <v>54852</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2897536292240329</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2168515321518666</v>
+        <v>0.2206447093814848</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3773979563629318</v>
+        <v>0.3734345456149673</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -2051,19 +2051,19 @@
         <v>39187</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31182</v>
+        <v>30615</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47362</v>
+        <v>48400</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5038020082469464</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4008872261737438</v>
+        <v>0.393593894366676</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6089020009548997</v>
+        <v>0.6222465853648317</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>78</v>
@@ -2072,19 +2072,19 @@
         <v>81748</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67555</v>
+        <v>67641</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>98213</v>
+        <v>97397</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3638601039920633</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.300687698714931</v>
+        <v>0.3010710213098789</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4371461859678026</v>
+        <v>0.4335131574045313</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>31702</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22406</v>
+        <v>23472</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>43173</v>
+        <v>43789</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.215831803712003</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1525415301806576</v>
+        <v>0.15979683401567</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2939250479920882</v>
+        <v>0.2981190280887656</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -2122,19 +2122,19 @@
         <v>17335</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10684</v>
+        <v>10745</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26468</v>
+        <v>26854</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2228589569885194</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1373538547061582</v>
+        <v>0.1381453720015191</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3402751706206681</v>
+        <v>0.3452479820901686</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>46</v>
@@ -2143,19 +2143,19 @@
         <v>49037</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>37843</v>
+        <v>36991</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>63261</v>
+        <v>63235</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2182647002345293</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1684385731067079</v>
+        <v>0.1646474503690598</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2815761407354186</v>
+        <v>0.2814615867675067</v>
       </c>
     </row>
     <row r="24">
@@ -2172,19 +2172,19 @@
         <v>15092</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8764</v>
+        <v>9362</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25832</v>
+        <v>24882</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1027447552103141</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05966912135603698</v>
+        <v>0.06374003946465238</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1758646818295291</v>
+        <v>0.1694008396320757</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2193,19 +2193,19 @@
         <v>3183</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>966</v>
+        <v>979</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8522</v>
+        <v>8858</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04092743482638479</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01241305966646064</v>
+        <v>0.01259000843032623</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1095644663889768</v>
+        <v>0.1138795003434241</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -2214,19 +2214,19 @@
         <v>18275</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11575</v>
+        <v>11392</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>28772</v>
+        <v>27788</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08134275387692157</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0515193339355015</v>
+        <v>0.05070731402445836</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1280650629625517</v>
+        <v>0.1236828460789667</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>50501</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>42114</v>
+        <v>41764</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56689</v>
+        <v>56364</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7455630789420656</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6217398963941357</v>
+        <v>0.6165748839821621</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8369106120375609</v>
+        <v>0.8321112929268749</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -2268,19 +2268,19 @@
         <v>22346</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16945</v>
+        <v>16848</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26487</v>
+        <v>26951</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7120781798044661</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5399635642728509</v>
+        <v>0.5368545183298415</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8440335653586298</v>
+        <v>0.8588115627631028</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>70</v>
@@ -2289,19 +2289,19 @@
         <v>72848</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>63812</v>
+        <v>63004</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>80518</v>
+        <v>80123</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7349612761958503</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6438006329278049</v>
+        <v>0.6356492261161194</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8123407446233428</v>
+        <v>0.8083600822124752</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>36958</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28809</v>
+        <v>28456</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44901</v>
+        <v>45348</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5456201529660036</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4253190777872404</v>
+        <v>0.4201064233000647</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6628859968727198</v>
+        <v>0.6694742870069051</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -2339,19 +2339,19 @@
         <v>17038</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11770</v>
+        <v>11065</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21975</v>
+        <v>22445</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5429206777915012</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3750696975676468</v>
+        <v>0.3525846830955888</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7002495277126159</v>
+        <v>0.715214208719048</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>52</v>
@@ -2360,19 +2360,19 @@
         <v>53996</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>43922</v>
+        <v>43127</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>63893</v>
+        <v>62784</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5447654601326529</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4431247848829703</v>
+        <v>0.4351051463940414</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6446178193943971</v>
+        <v>0.6334297328714166</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>21684</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14586</v>
+        <v>14797</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30396</v>
+        <v>30094</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3201247201296025</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2153356565304149</v>
+        <v>0.2184502807864607</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4487447313338284</v>
+        <v>0.444288492178184</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>9</v>
@@ -2410,19 +2410,19 @@
         <v>9441</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>5099</v>
+        <v>5158</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>14741</v>
+        <v>15401</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3008469504619471</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1624792640248246</v>
+        <v>0.1643535735041321</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4697337766683578</v>
+        <v>0.4907662678509432</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>30</v>
@@ -2431,19 +2431,19 @@
         <v>31125</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>22473</v>
+        <v>22436</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>40430</v>
+        <v>40597</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3140210997912643</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2267293789974137</v>
+        <v>0.2263600629231024</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4078962416089543</v>
+        <v>0.4095849297724681</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>37669</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29279</v>
+        <v>29046</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>45219</v>
+        <v>44959</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5561209577158865</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4322452768852083</v>
+        <v>0.4288061544034896</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6675705263963132</v>
+        <v>0.6637359696282304</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -2481,19 +2481,19 @@
         <v>15185</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9893</v>
+        <v>9611</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20281</v>
+        <v>20368</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4838848408890544</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3152435030906127</v>
+        <v>0.3062548582773361</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6462505277396609</v>
+        <v>0.6490500015611218</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>51</v>
@@ -2502,19 +2502,19 @@
         <v>52855</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>42963</v>
+        <v>42872</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>62709</v>
+        <v>63335</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5332499596996285</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.433452073037389</v>
+        <v>0.4325391842702243</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6326749484689352</v>
+        <v>0.6389838493537157</v>
       </c>
     </row>
     <row r="29">
@@ -2531,19 +2531,19 @@
         <v>26180</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18502</v>
+        <v>17903</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>35205</v>
+        <v>34321</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3865060635926442</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2731482385320745</v>
+        <v>0.2643082744640778</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5197373783070426</v>
+        <v>0.5066837938764103</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -2552,19 +2552,19 @@
         <v>13359</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8032</v>
+        <v>8171</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18560</v>
+        <v>18817</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4256805004819001</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2559511217527593</v>
+        <v>0.2603674301419299</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5914332984910934</v>
+        <v>0.5996142523207973</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>39</v>
@@ -2573,19 +2573,19 @@
         <v>39539</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30924</v>
+        <v>29738</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>50824</v>
+        <v>49572</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3989092561746877</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.311987172650761</v>
+        <v>0.3000259026344508</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5127584136534873</v>
+        <v>0.500127764270422</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>21096</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13606</v>
+        <v>14909</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29498</v>
+        <v>29814</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3114430569691999</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.200860885176759</v>
+        <v>0.2201042299255683</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4354775981180957</v>
+        <v>0.4401535807123976</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -2623,19 +2623,19 @@
         <v>9046</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4291</v>
+        <v>4898</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>14902</v>
+        <v>15004</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2882458188427639</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1367298936086086</v>
+        <v>0.1560680412535618</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4748442367702388</v>
+        <v>0.4781236794940541</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>30</v>
@@ -2644,19 +2644,19 @@
         <v>30142</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>21486</v>
+        <v>21686</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>39291</v>
+        <v>40385</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3040984763012741</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2167750971553996</v>
+        <v>0.2187889108410066</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3964066872865599</v>
+        <v>0.4074386765978119</v>
       </c>
     </row>
     <row r="31">
@@ -2673,19 +2673,19 @@
         <v>8565</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4448</v>
+        <v>3832</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15941</v>
+        <v>15184</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1264457421239824</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06567356490368224</v>
+        <v>0.05657900053107594</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2353413787984026</v>
+        <v>0.2241628455382455</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -2694,19 +2694,19 @@
         <v>6117</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2159</v>
+        <v>2019</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11517</v>
+        <v>11395</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1949128865215086</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06878790943166053</v>
+        <v>0.06434838777026154</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3670095097986916</v>
+        <v>0.3631094261295225</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -2715,19 +2715,19 @@
         <v>14682</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8525</v>
+        <v>8886</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>21991</v>
+        <v>22439</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1481234290274542</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08601348010056774</v>
+        <v>0.08964634462774064</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.221864505069413</v>
+        <v>0.2263833124791927</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>353757</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>335356</v>
+        <v>333454</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>372126</v>
+        <v>370998</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7503056370517724</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7112782480957366</v>
+        <v>0.7072429394357618</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7892653238315847</v>
+        <v>0.7868738769702831</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>167</v>
@@ -2769,19 +2769,19 @@
         <v>171575</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>159680</v>
+        <v>157988</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>182337</v>
+        <v>183550</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7794578571851941</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7254192725872813</v>
+        <v>0.7177327577425068</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8283479674172423</v>
+        <v>0.8338607545681462</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>500</v>
@@ -2790,19 +2790,19 @@
         <v>525332</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>500723</v>
+        <v>502178</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>547205</v>
+        <v>546356</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7595840928127164</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.72400084746952</v>
+        <v>0.7261050829676298</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7912102802791806</v>
+        <v>0.7899833629964365</v>
       </c>
     </row>
     <row r="33">
@@ -2819,19 +2819,19 @@
         <v>204240</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>181318</v>
+        <v>183758</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>225428</v>
+        <v>228962</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4331848574900252</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3845677611404195</v>
+        <v>0.3897433772710261</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4781247226262521</v>
+        <v>0.4856202332883515</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>111</v>
@@ -2840,19 +2840,19 @@
         <v>113018</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>98113</v>
+        <v>97496</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>127379</v>
+        <v>126836</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5134340852877562</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4457231826801007</v>
+        <v>0.4429179215040394</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5786791822972083</v>
+        <v>0.5762096929885986</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>301</v>
@@ -2861,19 +2861,19 @@
         <v>317257</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>289552</v>
+        <v>290317</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>342779</v>
+        <v>342965</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4587262710277726</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4186673132849512</v>
+        <v>0.419772627578116</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4956288314082727</v>
+        <v>0.4958969238729041</v>
       </c>
     </row>
     <row r="34">
@@ -2890,19 +2890,19 @@
         <v>149217</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>128715</v>
+        <v>128855</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>170856</v>
+        <v>170867</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3164837226835816</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2729994480930364</v>
+        <v>0.2732959653132987</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3623789901640502</v>
+        <v>0.3624026539284253</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>66</v>
@@ -2911,19 +2911,19 @@
         <v>67753</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>55026</v>
+        <v>54836</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>82571</v>
+        <v>81500</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3077970380900666</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2499826198199568</v>
+        <v>0.2491175096472877</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3751146895309611</v>
+        <v>0.3702513128093003</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>205</v>
@@ -2932,19 +2932,19 @@
         <v>216970</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>192497</v>
+        <v>191224</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>242309</v>
+        <v>244672</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3137189583417468</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2783337553679417</v>
+        <v>0.2764930752277935</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3503569665684023</v>
+        <v>0.3537740996175125</v>
       </c>
     </row>
     <row r="35">
@@ -2961,19 +2961,19 @@
         <v>245913</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>222389</v>
+        <v>224723</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>268768</v>
+        <v>267332</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.521571467442312</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4716793852738177</v>
+        <v>0.4766290170674969</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5700461878482095</v>
+        <v>0.5670018662808933</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>111</v>
@@ -2982,19 +2982,19 @@
         <v>113916</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>99141</v>
+        <v>98690</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>128106</v>
+        <v>127830</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.5175159643610313</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4503939174513055</v>
+        <v>0.448343887092658</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5819819474799803</v>
+        <v>0.5807251949632133</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>344</v>
@@ -3003,19 +3003,19 @@
         <v>359829</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>329989</v>
+        <v>333308</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>384374</v>
+        <v>386561</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.520280697622524</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4771347410317658</v>
+        <v>0.4819339088249364</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5557714096120838</v>
+        <v>0.5589325105985754</v>
       </c>
     </row>
     <row r="36">
@@ -3032,19 +3032,19 @@
         <v>141071</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>121827</v>
+        <v>121875</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>161183</v>
+        <v>161933</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2992060202306581</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.258390417246937</v>
+        <v>0.2584916572404595</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3418639923984502</v>
+        <v>0.3434533710114525</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>88</v>
@@ -3053,19 +3053,19 @@
         <v>90168</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>76990</v>
+        <v>76631</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>105004</v>
+        <v>105090</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4096293551981223</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3497614453508551</v>
+        <v>0.3481299055301779</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4770271555561956</v>
+        <v>0.4774190371140655</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>218</v>
@@ -3074,19 +3074,19 @@
         <v>231239</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>207386</v>
+        <v>206265</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>256874</v>
+        <v>256657</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3343511317790205</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2998622001105888</v>
+        <v>0.2982409999237129</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3714170716350577</v>
+        <v>0.371103540515008</v>
       </c>
     </row>
     <row r="37">
@@ -3103,19 +3103,19 @@
         <v>106686</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>89300</v>
+        <v>88353</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>126882</v>
+        <v>126381</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2262775625735675</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1894013191336443</v>
+        <v>0.1873924258736802</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2691109502259632</v>
+        <v>0.2680494230285334</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>46</v>
@@ -3124,19 +3124,19 @@
         <v>47644</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>35644</v>
+        <v>36628</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>60459</v>
+        <v>60397</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.216444335976834</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1619313647916679</v>
+        <v>0.166400985339355</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2746614329706836</v>
+        <v>0.2743791551200981</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>144</v>
@@ -3145,19 +3145,19 @@
         <v>154330</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>131716</v>
+        <v>132100</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>178167</v>
+        <v>176756</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2231478812817975</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1904501091331066</v>
+        <v>0.1910048197338785</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2576141302133736</v>
+        <v>0.2555731421493981</v>
       </c>
     </row>
     <row r="38">
@@ -3174,19 +3174,19 @@
         <v>43508</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>32596</v>
+        <v>31693</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>59858</v>
+        <v>57932</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.09227914549549156</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06913572457270538</v>
+        <v>0.06721882422434443</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1269570171588757</v>
+        <v>0.1228715741606439</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>23</v>
@@ -3195,19 +3195,19 @@
         <v>23625</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>15752</v>
+        <v>16487</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>33649</v>
+        <v>34144</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1073289172997801</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07155843227762516</v>
+        <v>0.074898073833478</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1528638663928821</v>
+        <v>0.1551129796159994</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>63</v>
@@ -3216,19 +3216,19 @@
         <v>67133</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>52441</v>
+        <v>52138</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>85889</v>
+        <v>83720</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.09706912860001349</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.07582522091171168</v>
+        <v>0.0753868709165062</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1241875076940045</v>
+        <v>0.1210518082130286</v>
       </c>
     </row>
     <row r="39">
@@ -3489,19 +3489,19 @@
         <v>70072</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60454</v>
+        <v>61595</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75759</v>
+        <v>76278</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.840005845625182</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7247134147930155</v>
+        <v>0.738385892602633</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9081860173594982</v>
+        <v>0.9144058470789662</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -3510,19 +3510,19 @@
         <v>56029</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48164</v>
+        <v>47800</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62012</v>
+        <v>61907</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8097045343925777</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.696035618547615</v>
+        <v>0.6907809618854336</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8961654201486962</v>
+        <v>0.8946552863782715</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>116</v>
@@ -3531,19 +3531,19 @@
         <v>126101</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114964</v>
+        <v>115099</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>135004</v>
+        <v>134726</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8262668978901733</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7532944422201363</v>
+        <v>0.7541805427961263</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8846060421372427</v>
+        <v>0.8827839980898424</v>
       </c>
     </row>
     <row r="5">
@@ -3560,19 +3560,19 @@
         <v>36085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26975</v>
+        <v>27246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45914</v>
+        <v>46601</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4398888387202793</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.328831806859906</v>
+        <v>0.3321342126304593</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5597139504627261</v>
+        <v>0.5680821034658861</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -3581,19 +3581,19 @@
         <v>37258</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27902</v>
+        <v>29012</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45349</v>
+        <v>46457</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5304513884576975</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3972399609175798</v>
+        <v>0.4130511003855784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.645637586555612</v>
+        <v>0.6614120351022692</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -3602,19 +3602,19 @@
         <v>73343</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>60833</v>
+        <v>61758</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>86301</v>
+        <v>86835</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4816632493435002</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3995063867345497</v>
+        <v>0.405577154273249</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5667563775936536</v>
+        <v>0.570264761533151</v>
       </c>
     </row>
     <row r="6">
@@ -3631,19 +3631,19 @@
         <v>26227</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17216</v>
+        <v>17494</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35785</v>
+        <v>36099</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3143999158942689</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.206381434991163</v>
+        <v>0.2097168891786153</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4289859988636787</v>
+        <v>0.4327522798399536</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -3652,19 +3652,19 @@
         <v>25988</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17481</v>
+        <v>17991</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35208</v>
+        <v>34619</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3761443147379591</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2530219784968686</v>
+        <v>0.2603979879925258</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5095916727424086</v>
+        <v>0.5010696923243226</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>48</v>
@@ -3673,19 +3673,19 @@
         <v>52214</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39614</v>
+        <v>40810</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65153</v>
+        <v>63877</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3423716192456241</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2597546456517644</v>
+        <v>0.2675939103811041</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.427214506829816</v>
+        <v>0.4188462045445327</v>
       </c>
     </row>
     <row r="7">
@@ -3702,19 +3702,19 @@
         <v>51828</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42603</v>
+        <v>43269</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60899</v>
+        <v>62471</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6213017667271155</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.510713816355523</v>
+        <v>0.5187029524205441</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7300407580013311</v>
+        <v>0.7488874536933569</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -3723,19 +3723,19 @@
         <v>45665</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37079</v>
+        <v>37190</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53461</v>
+        <v>53202</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6599261527980257</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5358432202357925</v>
+        <v>0.5374516509775422</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7725885223521809</v>
+        <v>0.7688528611604193</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -3744,19 +3744,19 @@
         <v>97493</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>85024</v>
+        <v>85460</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109173</v>
+        <v>110553</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6388144881222888</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5571142628639862</v>
+        <v>0.5599728932267249</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7153516760560723</v>
+        <v>0.7243914447513735</v>
       </c>
     </row>
     <row r="8">
@@ -3773,19 +3773,19 @@
         <v>20514</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13331</v>
+        <v>13154</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29886</v>
+        <v>29405</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2459204705669005</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1598066813338823</v>
+        <v>0.1576902474721776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3582691554301555</v>
+        <v>0.352495942295242</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -3794,19 +3794,19 @@
         <v>28333</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>19759</v>
+        <v>19630</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37587</v>
+        <v>37683</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.403379413890932</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.28130756103006</v>
+        <v>0.2794795062000441</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5351279556506519</v>
+        <v>0.5364973711340076</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>44</v>
@@ -3815,19 +3815,19 @@
         <v>48847</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>35528</v>
+        <v>38190</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>60788</v>
+        <v>61765</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3178976317900957</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2312166306410512</v>
+        <v>0.2485401577915656</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3956074524688407</v>
+        <v>0.4019668058670354</v>
       </c>
     </row>
     <row r="9">
@@ -3844,19 +3844,19 @@
         <v>25123</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16867</v>
+        <v>17192</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>34589</v>
+        <v>34669</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3011643877014488</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2022004720687187</v>
+        <v>0.2060909745925435</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4146437475676765</v>
+        <v>0.4156024516102135</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>22</v>
@@ -3865,19 +3865,19 @@
         <v>25389</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17057</v>
+        <v>17544</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34325</v>
+        <v>33963</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3614644234959383</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2428435305756997</v>
+        <v>0.249775599228838</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4886868727049406</v>
+        <v>0.4835398159010339</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>45</v>
@@ -3886,19 +3886,19 @@
         <v>50511</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>38076</v>
+        <v>38757</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>62260</v>
+        <v>63296</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3287285597104833</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2477991615568031</v>
+        <v>0.2522284145981443</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4051863603416834</v>
+        <v>0.4119292653872928</v>
       </c>
     </row>
     <row r="10">
@@ -3915,19 +3915,19 @@
         <v>3059</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7756</v>
+        <v>7237</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09474848914553481</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0</v>
+        <v>0.02974503327706543</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2402036970255423</v>
+        <v>0.224136685414814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>3059</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8206</v>
+        <v>9266</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04554557763549504</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01456712115952727</v>
+        <v>0.0147386004702301</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1221740160345837</v>
+        <v>0.1379593125947982</v>
       </c>
     </row>
     <row r="11">
@@ -3982,19 +3982,19 @@
         <v>61299</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>53245</v>
+        <v>52473</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69206</v>
+        <v>68981</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6968877958104773</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6053220045089367</v>
+        <v>0.5965504145983389</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7867793117097924</v>
+        <v>0.7842238961993254</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>51</v>
@@ -4003,19 +4003,19 @@
         <v>56215</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>49109</v>
+        <v>49565</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>60085</v>
+        <v>60107</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9045847319127538</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7902299488035356</v>
+        <v>0.7975766381256031</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9668570984600421</v>
+        <v>0.9672108383537461</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>109</v>
@@ -4024,19 +4024,19 @@
         <v>117514</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>106968</v>
+        <v>106654</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>127015</v>
+        <v>126634</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7828755743574662</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7126199462565846</v>
+        <v>0.7105271098022198</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8461727028231543</v>
+        <v>0.8436392561556381</v>
       </c>
     </row>
     <row r="12">
@@ -4053,19 +4053,19 @@
         <v>37758</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29404</v>
+        <v>28958</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48628</v>
+        <v>47695</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4292602662408813</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3342797354071237</v>
+        <v>0.329216446010911</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5528318550397606</v>
+        <v>0.5422266016255093</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -4074,19 +4074,19 @@
         <v>35369</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26825</v>
+        <v>27048</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42797</v>
+        <v>44834</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5691385379345025</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4316493854785722</v>
+        <v>0.4352321893381937</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6886620873594923</v>
+        <v>0.7214494042208056</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>68</v>
@@ -4095,19 +4095,19 @@
         <v>73127</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>60149</v>
+        <v>59285</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>85706</v>
+        <v>84659</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4871707105432651</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4007159486570432</v>
+        <v>0.3949585811306593</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5709704207157198</v>
+        <v>0.5639962434685261</v>
       </c>
     </row>
     <row r="13">
@@ -4124,19 +4124,19 @@
         <v>16128</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9491</v>
+        <v>9895</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24291</v>
+        <v>24313</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1855595479783601</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1091935910345865</v>
+        <v>0.1138398434738056</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2794651916303961</v>
+        <v>0.2797206844868638</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -4145,19 +4145,19 @@
         <v>23838</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15947</v>
+        <v>15801</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32667</v>
+        <v>32144</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3835800627789301</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2566056054445996</v>
+        <v>0.2542529147317675</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5256507160299142</v>
+        <v>0.5172460486248608</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -4166,19 +4166,19 @@
         <v>39966</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28877</v>
+        <v>29663</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51855</v>
+        <v>53000</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2681145732637586</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1937236725027898</v>
+        <v>0.1989988806083489</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3478707303155031</v>
+        <v>0.3555545443616986</v>
       </c>
     </row>
     <row r="14">
@@ -4195,19 +4195,19 @@
         <v>43229</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34359</v>
+        <v>33772</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52751</v>
+        <v>52243</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4914559310823141</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3906121382480117</v>
+        <v>0.383948465587963</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5997135118269593</v>
+        <v>0.5939304771964212</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -4216,19 +4216,19 @@
         <v>37112</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28327</v>
+        <v>28606</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44827</v>
+        <v>45094</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5971775773540134</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4558161806397985</v>
+        <v>0.4603051637615238</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7213243060919057</v>
+        <v>0.7256263752127643</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>75</v>
@@ -4237,19 +4237,19 @@
         <v>80340</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>68034</v>
+        <v>67624</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>92015</v>
+        <v>92696</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5352253273855768</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.453242100470058</v>
+        <v>0.4505096001837512</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6130023686085133</v>
+        <v>0.6175438199906971</v>
       </c>
     </row>
     <row r="15">
@@ -4266,19 +4266,19 @@
         <v>21834</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14519</v>
+        <v>14574</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>31087</v>
+        <v>31752</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2511568591753983</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.167017657726879</v>
+        <v>0.1676474557029686</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3576002325112749</v>
+        <v>0.3652476616690072</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>24</v>
@@ -4287,19 +4287,19 @@
         <v>27400</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18677</v>
+        <v>19230</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>36639</v>
+        <v>35669</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4409000811254636</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3005347897188845</v>
+        <v>0.3094342374745786</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5895757729092388</v>
+        <v>0.5739695551143629</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>46</v>
@@ -4308,19 +4308,19 @@
         <v>49233</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>37441</v>
+        <v>37886</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>61441</v>
+        <v>60999</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3302535521015736</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2511506222024742</v>
+        <v>0.25413983528905</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4121396393622779</v>
+        <v>0.4091786918548467</v>
       </c>
     </row>
     <row r="16">
@@ -4337,19 +4337,19 @@
         <v>28069</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19678</v>
+        <v>19507</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37440</v>
+        <v>36886</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3159554723547124</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2214952318553782</v>
+        <v>0.219570621805033</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.421430142037955</v>
+        <v>0.4152011521470952</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -4358,19 +4358,19 @@
         <v>17430</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10576</v>
+        <v>11012</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26198</v>
+        <v>25534</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2804752940552517</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1701822787137088</v>
+        <v>0.1771965218456981</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4215580262174327</v>
+        <v>0.4108854785941836</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -4379,19 +4379,19 @@
         <v>45499</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34839</v>
+        <v>34704</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56798</v>
+        <v>56633</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3013519840684153</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2307480715085145</v>
+        <v>0.2298518400802227</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3761860595390451</v>
+        <v>0.3750919472121138</v>
       </c>
     </row>
     <row r="17">
@@ -4408,19 +4408,19 @@
         <v>2972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>919</v>
+        <v>865</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7514</v>
+        <v>7664</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07713206855227669</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02385270279656666</v>
+        <v>0.02244508673737339</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1950331706190333</v>
+        <v>0.1989410303833944</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -4442,19 +4442,19 @@
         <v>2972</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>938</v>
+        <v>900</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8135</v>
+        <v>8146</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0460999888841182</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01455409391807149</v>
+        <v>0.01395553605276121</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1262113368079873</v>
+        <v>0.1263724450189559</v>
       </c>
     </row>
     <row r="18">
@@ -4475,19 +4475,19 @@
         <v>76186</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>65920</v>
+        <v>67188</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>85602</v>
+        <v>85508</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.704874180863812</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6098950306396443</v>
+        <v>0.6216238209668687</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7919997213115267</v>
+        <v>0.7911265289678937</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -4496,19 +4496,19 @@
         <v>27597</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20674</v>
+        <v>20866</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33506</v>
+        <v>32788</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6462136941255479</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4841175088608758</v>
+        <v>0.4886117373997403</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7845858869093918</v>
+        <v>0.7677701526757952</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>99</v>
@@ -4517,19 +4517,19 @@
         <v>103782</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>92292</v>
+        <v>91535</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>115019</v>
+        <v>114402</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6882609982386665</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.612059935850796</v>
+        <v>0.6070374268584163</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7627801392293909</v>
+        <v>0.7586906197942233</v>
       </c>
     </row>
     <row r="19">
@@ -4546,19 +4546,19 @@
         <v>56258</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45487</v>
+        <v>46218</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67076</v>
+        <v>66595</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.520504169314111</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4208498766301138</v>
+        <v>0.4276120181844281</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6205880377906248</v>
+        <v>0.6161418145285533</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -4567,19 +4567,19 @@
         <v>27095</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19552</v>
+        <v>20597</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32943</v>
+        <v>33491</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6181917731262614</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4460884914467362</v>
+        <v>0.4699208647042092</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7516098668271531</v>
+        <v>0.7641187993685179</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>78</v>
@@ -4588,19 +4588,19 @@
         <v>83354</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71073</v>
+        <v>70662</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>95882</v>
+        <v>95877</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5486889214647137</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4678482011521342</v>
+        <v>0.465145076905197</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6311565029607107</v>
+        <v>0.631129695955993</v>
       </c>
     </row>
     <row r="20">
@@ -4617,19 +4617,19 @@
         <v>20689</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12597</v>
+        <v>13692</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29443</v>
+        <v>30300</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1934641475608841</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1177984715112525</v>
+        <v>0.1280388841076212</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2753247659904332</v>
+        <v>0.2833371861120502</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -4638,19 +4638,19 @@
         <v>14115</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8571</v>
+        <v>8512</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21756</v>
+        <v>20970</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3220312402820488</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1955396240702648</v>
+        <v>0.1942106901358525</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4963658115026375</v>
+        <v>0.4784323334664992</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>34</v>
@@ -4659,19 +4659,19 @@
         <v>34804</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25019</v>
+        <v>26131</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>47098</v>
+        <v>46247</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2308398153634218</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1659412546114738</v>
+        <v>0.1733187161434865</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3123844631473325</v>
+        <v>0.3067402405460232</v>
       </c>
     </row>
     <row r="21">
@@ -4688,19 +4688,19 @@
         <v>62210</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>51532</v>
+        <v>52055</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>72858</v>
+        <v>72685</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.581136089790766</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4813904460922417</v>
+        <v>0.4862688221877385</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6806084111955046</v>
+        <v>0.6789846071067233</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -4709,19 +4709,19 @@
         <v>8981</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4133</v>
+        <v>4582</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15028</v>
+        <v>14432</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.210306740877457</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09677020043557918</v>
+        <v>0.1072849462957992</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3518985363101452</v>
+        <v>0.3379457510495436</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>68</v>
@@ -4730,19 +4730,19 @@
         <v>71191</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>58087</v>
+        <v>59289</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>82994</v>
+        <v>84724</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4753877375285796</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3878861459877843</v>
+        <v>0.3959109612750491</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.554204267810306</v>
+        <v>0.5657611488429705</v>
       </c>
     </row>
     <row r="22">
@@ -4759,19 +4759,19 @@
         <v>32700</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22738</v>
+        <v>23323</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43305</v>
+        <v>43598</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3028627841632608</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2105976095775987</v>
+        <v>0.2160184227717444</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4010895132961831</v>
+        <v>0.4038003371317258</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -4780,19 +4780,19 @@
         <v>16781</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10734</v>
+        <v>10417</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23308</v>
+        <v>22821</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3917359779878738</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2505769857203428</v>
+        <v>0.2431668722840764</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5441127523127186</v>
+        <v>0.5327431027029792</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>47</v>
@@ -4801,19 +4801,19 @@
         <v>49481</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38172</v>
+        <v>38539</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>61416</v>
+        <v>60633</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3281076888267467</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2531196392933437</v>
+        <v>0.2555487326907712</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4072518711068445</v>
+        <v>0.4020571700441643</v>
       </c>
     </row>
     <row r="23">
@@ -4830,19 +4830,19 @@
         <v>21118</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13446</v>
+        <v>13507</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29966</v>
+        <v>30615</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1974728522368269</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.125730981314234</v>
+        <v>0.1263018420575542</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2802119198194223</v>
+        <v>0.2862810666801149</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -4851,19 +4851,19 @@
         <v>8977</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4071</v>
+        <v>4640</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14543</v>
+        <v>14679</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2095704805351854</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09502508358202028</v>
+        <v>0.1083281928562064</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.339486429718053</v>
+        <v>0.342681047611713</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>29</v>
@@ -4872,19 +4872,19 @@
         <v>30095</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20937</v>
+        <v>21147</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>41506</v>
+        <v>40607</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2009328746838954</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1397877015485692</v>
+        <v>0.14119111896603</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2771156917259494</v>
+        <v>0.2711167739108428</v>
       </c>
     </row>
     <row r="24">
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4925</v>
+        <v>3991</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01740084702754537</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09049492629908451</v>
+        <v>0.07334498421966534</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6443</v>
+        <v>6094</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08255166685681506</v>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2734516542040815</v>
+        <v>0.2586695243608345</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -4943,19 +4943,19 @@
         <v>2892</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8122</v>
+        <v>7880</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03708526384794005</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01193473637920111</v>
+        <v>0.01188044751737194</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1041537377945465</v>
+        <v>0.1010548494335734</v>
       </c>
     </row>
     <row r="25">
@@ -4976,19 +4976,19 @@
         <v>35820</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28697</v>
+        <v>28660</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41381</v>
+        <v>41300</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7448275779179401</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5967327441820151</v>
+        <v>0.5959487093292183</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8604681524511534</v>
+        <v>0.8587957906064855</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -4997,19 +4997,19 @@
         <v>25803</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19466</v>
+        <v>19172</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31188</v>
+        <v>31012</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6685640052638493</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5043666493072821</v>
+        <v>0.4967380901168031</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8080846998290788</v>
+        <v>0.8035351418868439</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>61</v>
@@ -5018,19 +5018,19 @@
         <v>61622</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52522</v>
+        <v>52060</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>69221</v>
+        <v>70442</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7108730689490559</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6058995299778973</v>
+        <v>0.6005608527490817</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.798537814915137</v>
+        <v>0.8126256701534371</v>
       </c>
     </row>
     <row r="26">
@@ -5047,19 +5047,19 @@
         <v>22270</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15428</v>
+        <v>15332</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>28870</v>
+        <v>28788</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4735528131609252</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3280547473218099</v>
+        <v>0.3260134079733225</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6138814622622177</v>
+        <v>0.6121421113801985</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -5068,19 +5068,19 @@
         <v>23444</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16577</v>
+        <v>16612</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29721</v>
+        <v>29280</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6074401254238244</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4295172198786296</v>
+        <v>0.4304101810005465</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7700801254391293</v>
+        <v>0.7586359910784483</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>45</v>
@@ -5089,19 +5089,19 @@
         <v>45714</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>36319</v>
+        <v>36567</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>55907</v>
+        <v>55426</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5339030788582865</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4241779925886558</v>
+        <v>0.4270742198304947</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6529507392021084</v>
+        <v>0.6473311491301433</v>
       </c>
     </row>
     <row r="27">
@@ -5118,19 +5118,19 @@
         <v>14231</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8546</v>
+        <v>7549</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>21208</v>
+        <v>21060</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3026054535128394</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1817179835947643</v>
+        <v>0.1605272767039415</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.450961399794251</v>
+        <v>0.4478178711441846</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -5139,19 +5139,19 @@
         <v>10533</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6069</v>
+        <v>5640</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>17554</v>
+        <v>16842</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2729161444507666</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1572417193823058</v>
+        <v>0.146133893562989</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4548274617590641</v>
+        <v>0.4363702846874733</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>23</v>
@@ -5160,19 +5160,19 @@
         <v>24764</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>16482</v>
+        <v>17105</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>33495</v>
+        <v>34445</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2892228733416212</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1925017033014792</v>
+        <v>0.1997692433626319</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3911910115949508</v>
+        <v>0.4022858627520412</v>
       </c>
     </row>
     <row r="28">
@@ -5189,19 +5189,19 @@
         <v>21175</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14473</v>
+        <v>15228</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>27770</v>
+        <v>28592</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4502690807338165</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3077444775050517</v>
+        <v>0.3238089685499442</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5904940981857465</v>
+        <v>0.6079741471541741</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -5210,19 +5210,19 @@
         <v>17606</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11011</v>
+        <v>11238</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24343</v>
+        <v>24238</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4561851893671676</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2852928804567193</v>
+        <v>0.291177589334653</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6307166797598135</v>
+        <v>0.6280129339877815</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>37</v>
@@ -5231,19 +5231,19 @@
         <v>38781</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>30107</v>
+        <v>30322</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>48471</v>
+        <v>48537</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4529357914316616</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3516237696031368</v>
+        <v>0.3541342724155235</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.566101832159101</v>
+        <v>0.5668755486266424</v>
       </c>
     </row>
     <row r="29">
@@ -5260,19 +5260,19 @@
         <v>9497</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4878</v>
+        <v>4832</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15940</v>
+        <v>15547</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2019476150935988</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1037203551774734</v>
+        <v>0.1027576038812441</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3389415278699478</v>
+        <v>0.3305817007782401</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -5281,19 +5281,19 @@
         <v>14516</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8942</v>
+        <v>8974</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>21379</v>
+        <v>21969</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.376121354756159</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2316857233311013</v>
+        <v>0.232529625468868</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5539398208025174</v>
+        <v>0.5692236402401362</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>23</v>
@@ -5302,19 +5302,19 @@
         <v>24013</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>15666</v>
+        <v>16083</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>33149</v>
+        <v>34010</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2804571563524333</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1829637096469737</v>
+        <v>0.1878322168083009</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3871604220546856</v>
+        <v>0.397215204306132</v>
       </c>
     </row>
     <row r="30">
@@ -5331,19 +5331,19 @@
         <v>10410</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5033</v>
+        <v>5556</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17197</v>
+        <v>16861</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2213608498156879</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1070319490062187</v>
+        <v>0.1181322382671573</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3656838086550381</v>
+        <v>0.358526276910227</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -5352,19 +5352,19 @@
         <v>10677</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5598</v>
+        <v>6361</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>16562</v>
+        <v>17461</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2766373535514972</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1450465533879693</v>
+        <v>0.1648014294981704</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4291166359583171</v>
+        <v>0.4524238570514368</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>21</v>
@@ -5373,19 +5373,19 @@
         <v>21087</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>14337</v>
+        <v>13407</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>29474</v>
+        <v>30013</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2462769649493373</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1674426094953831</v>
+        <v>0.1565847683457146</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.344229305299085</v>
+        <v>0.3505250207050711</v>
       </c>
     </row>
     <row r="31">
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3518</v>
+        <v>4424</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04897550458221267</v>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2027984009330135</v>
+        <v>0.2550424793186959</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4567</v>
+        <v>3940</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05727579913618042</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2892854914209838</v>
+        <v>0.2495992186739542</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5551</v>
+        <v>5436</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05293042456241792</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1675388248682428</v>
+        <v>0.1640622726528328</v>
       </c>
     </row>
     <row r="32">
@@ -5477,19 +5477,19 @@
         <v>243376</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>228211</v>
+        <v>225928</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>259411</v>
+        <v>257870</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7430092959041255</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6967124577993591</v>
+        <v>0.6897429934117537</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7919651429717014</v>
+        <v>0.7872585153202986</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>151</v>
@@ -5498,19 +5498,19 @@
         <v>165644</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>153066</v>
+        <v>152357</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>177256</v>
+        <v>177473</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.778982325521882</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7198352670758612</v>
+        <v>0.7165002072849801</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8335914682581028</v>
+        <v>0.834614915704147</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>385</v>
@@ -5519,19 +5519,19 @@
         <v>409019</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>388985</v>
+        <v>388128</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>429414</v>
+        <v>428801</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7571696526515318</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7200819481779706</v>
+        <v>0.7184969203590018</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7949234653129765</v>
+        <v>0.7937887049012526</v>
       </c>
     </row>
     <row r="33">
@@ -5548,19 +5548,19 @@
         <v>152372</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>133003</v>
+        <v>133398</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>169979</v>
+        <v>168643</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4686840910435375</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.409108526693915</v>
+        <v>0.4103240435007243</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.522843344339563</v>
+        <v>0.5187344260557682</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>114</v>
@@ -5569,19 +5569,19 @@
         <v>123167</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>107004</v>
+        <v>106890</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>138529</v>
+        <v>137656</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5733790017330392</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4981352463488734</v>
+        <v>0.4976043203215</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6448932350354463</v>
+        <v>0.6408283625869857</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>259</v>
@@ -5590,19 +5590,19 @@
         <v>275538</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>252418</v>
+        <v>251113</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>300404</v>
+        <v>299065</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5103377515675801</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4675164364231237</v>
+        <v>0.4650983370472094</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.556393564274286</v>
+        <v>0.5539127485438228</v>
       </c>
     </row>
     <row r="34">
@@ -5619,19 +5619,19 @@
         <v>77275</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>63226</v>
+        <v>61753</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>92433</v>
+        <v>92878</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2382796004371127</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1949604451316194</v>
+        <v>0.1904172104436525</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2850212896858084</v>
+        <v>0.2863911516959972</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>69</v>
@@ -5640,19 +5640,19 @@
         <v>74473</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>59786</v>
+        <v>59973</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>87810</v>
+        <v>89969</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3485594834207683</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2798181742471796</v>
+        <v>0.280693458011828</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.410980412738229</v>
+        <v>0.4210872745722143</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>142</v>
@@ -5661,19 +5661,19 @@
         <v>151748</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>130605</v>
+        <v>131786</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>175058</v>
+        <v>175519</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2820787135545301</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2427764581787448</v>
+        <v>0.2449727482128806</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3254097759396504</v>
+        <v>0.3262658242573618</v>
       </c>
     </row>
     <row r="35">
@@ -5690,19 +5690,19 @@
         <v>178441</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>157395</v>
+        <v>160709</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>197275</v>
+        <v>196785</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.5482830805864161</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4836157178077435</v>
+        <v>0.4937978344175108</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6061499291716352</v>
+        <v>0.6046460738476124</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>98</v>
@@ -5711,19 +5711,19 @@
         <v>109364</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>94942</v>
+        <v>93261</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>123748</v>
+        <v>124992</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.5143116106425796</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4464890245182982</v>
+        <v>0.4385825581019741</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5819572486520704</v>
+        <v>0.5878076016676664</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>268</v>
@@ -5732,19 +5732,19 @@
         <v>287805</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>265708</v>
+        <v>266093</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>310570</v>
+        <v>309566</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.5348584619586991</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4937935259786739</v>
+        <v>0.4945081548163146</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5771643319847443</v>
+        <v>0.5752997147360657</v>
       </c>
     </row>
     <row r="36">
@@ -5761,19 +5761,19 @@
         <v>84545</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>69949</v>
+        <v>69579</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>102912</v>
+        <v>101717</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.25986032783984</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2149996241789227</v>
+        <v>0.2138618780434373</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3163144554004514</v>
+        <v>0.3126409501419791</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>79</v>
@@ -5782,19 +5782,19 @@
         <v>87030</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>71258</v>
+        <v>72032</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>101991</v>
+        <v>102447</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4070316959405893</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3332655672460084</v>
+        <v>0.3368859210105258</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4770013031266125</v>
+        <v>0.4791340844271839</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>160</v>
@@ -5803,19 +5803,19 @@
         <v>171575</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>148578</v>
+        <v>147207</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>194038</v>
+        <v>194247</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3182240523310565</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2755722823717457</v>
+        <v>0.2730283998627623</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3598879310320773</v>
+        <v>0.3602745439631559</v>
       </c>
     </row>
     <row r="37">
@@ -5832,19 +5832,19 @@
         <v>84720</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>69458</v>
+        <v>69577</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>101764</v>
+        <v>102300</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2596971075543131</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.212914236945133</v>
+        <v>0.2132797008437958</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3119445969682927</v>
+        <v>0.3135876314678778</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>58</v>
@@ -5853,19 +5853,19 @@
         <v>62473</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>49084</v>
+        <v>48421</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>76230</v>
+        <v>75933</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2921821507294121</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.229563545141481</v>
+        <v>0.2264614282888622</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3565209468902569</v>
+        <v>0.3551324452427662</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>139</v>
@@ -5874,19 +5874,19 @@
         <v>147193</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>127142</v>
+        <v>125826</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>170123</v>
+        <v>169183</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2725587616332178</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.235429988817867</v>
+        <v>0.2329934348966392</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3150190107397798</v>
+        <v>0.3132789297786411</v>
       </c>
     </row>
     <row r="38">
@@ -5903,19 +5903,19 @@
         <v>7827</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3887</v>
+        <v>3774</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>15160</v>
+        <v>14339</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05489805321214703</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02726088378649663</v>
+        <v>0.02646766334132671</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1063297267122749</v>
+        <v>0.1005730843511929</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3</v>
@@ -5924,19 +5924,19 @@
         <v>2849</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>898</v>
+        <v>30</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>7982</v>
+        <v>8445</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02844565069839271</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.008967359125121237</v>
+        <v>0.00029510510445514</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.07968909856953987</v>
+        <v>0.08431024124503823</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>11</v>
@@ -5945,19 +5945,19 @@
         <v>10676</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5712</v>
+        <v>5660</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>18264</v>
+        <v>17613</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04398300138971414</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02353232510261353</v>
+        <v>0.02331544189016896</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.07524345528342215</v>
+        <v>0.0725616077773812</v>
       </c>
     </row>
     <row r="39">
@@ -6218,19 +6218,19 @@
         <v>67781</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58558</v>
+        <v>59833</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73810</v>
+        <v>74297</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8167150606032654</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7055839188041512</v>
+        <v>0.7209523969739998</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8893608391580322</v>
+        <v>0.8952356786826827</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -6239,19 +6239,19 @@
         <v>57161</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51656</v>
+        <v>51142</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60497</v>
+        <v>60461</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9032359748085499</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8162469715488434</v>
+        <v>0.8081290639306764</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9559385423964647</v>
+        <v>0.9553723372917572</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>116</v>
@@ -6260,19 +6260,19 @@
         <v>124941</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114873</v>
+        <v>113874</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132645</v>
+        <v>132319</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8541471457611074</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7853171853366673</v>
+        <v>0.7784844261320596</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9068150078330828</v>
+        <v>0.9045820204928747</v>
       </c>
     </row>
     <row r="5">
@@ -6289,19 +6289,19 @@
         <v>32121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22610</v>
+        <v>23004</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41465</v>
+        <v>41673</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.387033384967888</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2724332655260728</v>
+        <v>0.2771786562610078</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.49962971487411</v>
+        <v>0.5021310168970333</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -6310,19 +6310,19 @@
         <v>35893</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28231</v>
+        <v>28268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43247</v>
+        <v>43551</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5671661411686241</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4460852462793505</v>
+        <v>0.4466735498275005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6833757690435344</v>
+        <v>0.6881707271324238</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>63</v>
@@ -6331,19 +6331,19 @@
         <v>68013</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56132</v>
+        <v>55800</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79821</v>
+        <v>80545</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4649653477974129</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3837395706843348</v>
+        <v>0.381469091486425</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5456890642670508</v>
+        <v>0.5506378764274845</v>
       </c>
     </row>
     <row r="6">
@@ -6360,19 +6360,19 @@
         <v>39419</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30498</v>
+        <v>29833</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49115</v>
+        <v>48385</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4749733947782299</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3674819437646706</v>
+        <v>0.3594650122016416</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5918019120364402</v>
+        <v>0.5830041170663822</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -6381,19 +6381,19 @@
         <v>30250</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23072</v>
+        <v>22949</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38182</v>
+        <v>38207</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4779943792813189</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3645769273588402</v>
+        <v>0.3626293940446602</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.603341665996455</v>
+        <v>0.6037316544828323</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>65</v>
@@ -6402,19 +6402,19 @@
         <v>69668</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56856</v>
+        <v>55422</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>82878</v>
+        <v>81391</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4762803822299788</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3886901241495448</v>
+        <v>0.3788850915989417</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5665893552460129</v>
+        <v>0.5564196997071689</v>
       </c>
     </row>
     <row r="7">
@@ -6431,19 +6431,19 @@
         <v>49837</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40058</v>
+        <v>41078</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59110</v>
+        <v>59738</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6004997106095072</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4826781595375968</v>
+        <v>0.4949574046511219</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7122431776413776</v>
+        <v>0.7197993556178315</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -6452,19 +6452,19 @@
         <v>42010</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34146</v>
+        <v>33369</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48599</v>
+        <v>48995</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6638209648221201</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5395620289581922</v>
+        <v>0.5272751151112363</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7679404812355578</v>
+        <v>0.7742003688277014</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -6473,19 +6473,19 @@
         <v>91846</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79271</v>
+        <v>78185</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>102857</v>
+        <v>103229</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6278947815210801</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5419277676696997</v>
+        <v>0.5345022183732815</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7031676645258215</v>
+        <v>0.7057143352882257</v>
       </c>
     </row>
     <row r="8">
@@ -6502,19 +6502,19 @@
         <v>22837</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14321</v>
+        <v>15801</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32112</v>
+        <v>32998</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2751756520334873</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1725576278630363</v>
+        <v>0.1903895419307186</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3869247856091196</v>
+        <v>0.3976019811554853</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -6523,19 +6523,19 @@
         <v>26947</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>19644</v>
+        <v>18688</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>35092</v>
+        <v>34282</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4257981003602294</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3104068632918992</v>
+        <v>0.2952984850962481</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5545078258919406</v>
+        <v>0.5417138023150884</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -6544,19 +6544,19 @@
         <v>49784</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>38370</v>
+        <v>38426</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>61927</v>
+        <v>60424</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3403403854882443</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2623106924982994</v>
+        <v>0.2626922504075593</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4233596441842626</v>
+        <v>0.4130810845600417</v>
       </c>
     </row>
     <row r="9">
@@ -6573,19 +6573,19 @@
         <v>15855</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8880</v>
+        <v>9625</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24464</v>
+        <v>25554</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1910414983036706</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1069992875801714</v>
+        <v>0.1159804165564718</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.294778800741932</v>
+        <v>0.3079134770633939</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>24</v>
@@ -6594,19 +6594,19 @@
         <v>24055</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16244</v>
+        <v>17476</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>31738</v>
+        <v>31921</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3801102971411114</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2566847047527679</v>
+        <v>0.2761503537241386</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5015088227169565</v>
+        <v>0.5043995542272494</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>38</v>
@@ -6615,19 +6615,19 @@
         <v>39910</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>29604</v>
+        <v>29759</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>52437</v>
+        <v>51946</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2728395172425611</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2023871188120564</v>
+        <v>0.2034450168290494</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3584826407813822</v>
+        <v>0.3551213280274509</v>
       </c>
     </row>
     <row r="10">
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7023</v>
+        <v>7126</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02557460460075756</v>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08462347657147028</v>
+        <v>0.08586783055937043</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7108</v>
+        <v>7324</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01451010318989262</v>
@@ -6690,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04859348817251396</v>
+        <v>0.05007184822379666</v>
       </c>
     </row>
     <row r="11">
@@ -6711,19 +6711,19 @@
         <v>91743</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>82149</v>
+        <v>83006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>98813</v>
+        <v>99201</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8345984669451565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7473157663596535</v>
+        <v>0.75511224290988</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8989122053200193</v>
+        <v>0.9024387773625795</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -6732,19 +6732,19 @@
         <v>51369</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>43847</v>
+        <v>44152</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55971</v>
+        <v>56101</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8541314645588444</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7290653965622869</v>
+        <v>0.734135041442281</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9306441407837607</v>
+        <v>0.9328054141050648</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>138</v>
@@ -6753,19 +6753,19 @@
         <v>143112</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>131956</v>
+        <v>132299</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>152192</v>
+        <v>151660</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8415060478547458</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7759043581123294</v>
+        <v>0.7779230237784214</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8948940010848653</v>
+        <v>0.8917668789977297</v>
       </c>
     </row>
     <row r="12">
@@ -6782,19 +6782,19 @@
         <v>40730</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31371</v>
+        <v>30486</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51941</v>
+        <v>52171</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3705276439054395</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2853833645596143</v>
+        <v>0.2773349784033924</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4725161662095544</v>
+        <v>0.4746073348377969</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>36</v>
@@ -6803,19 +6803,19 @@
         <v>37860</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30501</v>
+        <v>30652</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44917</v>
+        <v>44914</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6295105951241423</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5071466569978951</v>
+        <v>0.5096637124578992</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7468494572724658</v>
+        <v>0.7468000371184121</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>74</v>
@@ -6824,19 +6824,19 @@
         <v>78590</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>66763</v>
+        <v>64454</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>92690</v>
+        <v>91246</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4621134683205208</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3925684376901908</v>
+        <v>0.378993987598043</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5450201251219188</v>
+        <v>0.5365302051198659</v>
       </c>
     </row>
     <row r="13">
@@ -6853,19 +6853,19 @@
         <v>37362</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27891</v>
+        <v>27919</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48960</v>
+        <v>48945</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3398863547807397</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2537252241427597</v>
+        <v>0.2539782522619431</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4453971774351221</v>
+        <v>0.4452540837968506</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -6874,19 +6874,19 @@
         <v>20955</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14079</v>
+        <v>13710</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28954</v>
+        <v>28936</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3484316544933811</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2341035483741668</v>
+        <v>0.2279652603272546</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4814190271786097</v>
+        <v>0.4811264804673055</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -6895,19 +6895,19 @@
         <v>58317</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46658</v>
+        <v>46245</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>70868</v>
+        <v>73442</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3429082846621214</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2743523533405428</v>
+        <v>0.271922085095578</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4167054750809149</v>
+        <v>0.4318419054829344</v>
       </c>
     </row>
     <row r="14">
@@ -6924,19 +6924,19 @@
         <v>66611</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55761</v>
+        <v>56452</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>76507</v>
+        <v>76786</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6059637175057033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5072657578425639</v>
+        <v>0.5135546224585948</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6959895213930136</v>
+        <v>0.6985303475890695</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -6945,19 +6945,19 @@
         <v>37828</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29680</v>
+        <v>29498</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44584</v>
+        <v>45353</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6289817960245228</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4934950105039324</v>
+        <v>0.4904713368811142</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7413097764437899</v>
+        <v>0.7540945803415909</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>102</v>
@@ -6966,19 +6966,19 @@
         <v>104439</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90883</v>
+        <v>90431</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>117252</v>
+        <v>116723</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6141037502286176</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5343971715445537</v>
+        <v>0.5317398049506811</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6894446310332677</v>
+        <v>0.6863365622389703</v>
       </c>
     </row>
     <row r="15">
@@ -6995,19 +6995,19 @@
         <v>30026</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21994</v>
+        <v>21121</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>39616</v>
+        <v>40022</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2731533029435564</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2000861545063428</v>
+        <v>0.1921379507395362</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3603870205709646</v>
+        <v>0.3640825547010837</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>25</v>
@@ -7016,19 +7016,19 @@
         <v>26330</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18905</v>
+        <v>18017</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>34274</v>
+        <v>33721</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4377905956864518</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.314346300972029</v>
+        <v>0.2995790350866149</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5698859120949989</v>
+        <v>0.5606833671093937</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>54</v>
@@ -7037,19 +7037,19 @@
         <v>56356</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>45301</v>
+        <v>44847</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>70521</v>
+        <v>69545</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3313750589100019</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2663724103260293</v>
+        <v>0.2636997304664799</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4146644594239265</v>
+        <v>0.4089286940889507</v>
       </c>
     </row>
     <row r="16">
@@ -7066,19 +7066,19 @@
         <v>22422</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14886</v>
+        <v>14366</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32463</v>
+        <v>32119</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2039712866606638</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1354179074384627</v>
+        <v>0.1306898619284819</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2953191675317773</v>
+        <v>0.2921933186262127</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -7087,19 +7087,19 @@
         <v>16324</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10038</v>
+        <v>10273</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24446</v>
+        <v>24545</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2714175752686038</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1669058603830021</v>
+        <v>0.1708197478292037</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4064744340184357</v>
+        <v>0.4081106403013893</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -7108,19 +7108,19 @@
         <v>38745</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27727</v>
+        <v>28101</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50736</v>
+        <v>51363</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2278227560984312</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1630378966814349</v>
+        <v>0.1652347018011475</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2983270799149706</v>
+        <v>0.3020153307670848</v>
       </c>
     </row>
     <row r="17">
@@ -7137,19 +7137,19 @@
         <v>3937</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1008</v>
+        <v>1038</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9176</v>
+        <v>10213</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.035816051159911</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009168598913379081</v>
+        <v>0.009440404149549806</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08347351397077438</v>
+        <v>0.09290545800119805</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -7161,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5895</v>
+        <v>6945</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03175749341083603</v>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09801808533063831</v>
+        <v>0.1154779977009553</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -7179,19 +7179,19 @@
         <v>5847</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2124</v>
+        <v>2001</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11772</v>
+        <v>11624</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03438079700269293</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01248975729090864</v>
+        <v>0.01176840440848403</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06922196897165174</v>
+        <v>0.068347143270913</v>
       </c>
     </row>
     <row r="18">
@@ -7212,19 +7212,19 @@
         <v>59764</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49759</v>
+        <v>50634</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>67975</v>
+        <v>68331</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6782614502985741</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5647088538229172</v>
+        <v>0.5746395110732463</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7714415039210393</v>
+        <v>0.7754788685457455</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>40</v>
@@ -7233,19 +7233,19 @@
         <v>40595</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>35051</v>
+        <v>35246</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>43668</v>
+        <v>44159</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8785608332016804</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7585707577823537</v>
+        <v>0.762791835170651</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9450653254708096</v>
+        <v>0.9556899380088563</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>96</v>
@@ -7254,19 +7254,19 @@
         <v>100358</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>89006</v>
+        <v>88551</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>109878</v>
+        <v>109210</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.747164205693015</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6626461138383971</v>
+        <v>0.6592619443200859</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8180403837213429</v>
+        <v>0.8130675857052514</v>
       </c>
     </row>
     <row r="19">
@@ -7283,19 +7283,19 @@
         <v>41582</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32467</v>
+        <v>31982</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50990</v>
+        <v>51738</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4719115035247394</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3684681056054437</v>
+        <v>0.3629647114577896</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5786839660402129</v>
+        <v>0.5871708209762875</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -7304,19 +7304,19 @@
         <v>29593</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22812</v>
+        <v>22175</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35888</v>
+        <v>34907</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6404486605526383</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.493696352107465</v>
+        <v>0.4799158707606707</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7767018867283174</v>
+        <v>0.7554640221184932</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>67</v>
@@ -7325,19 +7325,19 @@
         <v>71174</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59444</v>
+        <v>59976</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82510</v>
+        <v>82161</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5298880900586348</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4425606984293117</v>
+        <v>0.4465204056298802</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6142801884007852</v>
+        <v>0.6116854945818812</v>
       </c>
     </row>
     <row r="20">
@@ -7354,19 +7354,19 @@
         <v>31117</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21940</v>
+        <v>22251</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40072</v>
+        <v>41132</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3531447666304367</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2489952826107938</v>
+        <v>0.2525276146190329</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4547711980834137</v>
+        <v>0.4668088468729349</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -7375,19 +7375,19 @@
         <v>19963</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13537</v>
+        <v>13074</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26409</v>
+        <v>26349</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4320386259410618</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2929632998787389</v>
+        <v>0.2829429074029323</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5715555256174017</v>
+        <v>0.5702607917285158</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>50</v>
@@ -7396,19 +7396,19 @@
         <v>51079</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>40118</v>
+        <v>40230</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61931</v>
+        <v>62649</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3802841627254964</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2986793778664633</v>
+        <v>0.2995087797635956</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4610719097399142</v>
+        <v>0.4664197477965855</v>
       </c>
     </row>
     <row r="21">
@@ -7425,19 +7425,19 @@
         <v>51131</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>41621</v>
+        <v>42281</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>60654</v>
+        <v>60847</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5802835409254331</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.472358248319876</v>
+        <v>0.4798496604730688</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6883636939317107</v>
+        <v>0.6905466023174613</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>29</v>
@@ -7446,19 +7446,19 @@
         <v>29147</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>22437</v>
+        <v>22633</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>35155</v>
+        <v>35565</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6308119432010888</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4855941774374103</v>
+        <v>0.4898306822571677</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7608412435154566</v>
+        <v>0.7697005710960243</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>78</v>
@@ -7467,19 +7467,19 @@
         <v>80278</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>69178</v>
+        <v>68657</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>91035</v>
+        <v>92222</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5976652527011284</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5150256198885574</v>
+        <v>0.5111519088568949</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6777536302348331</v>
+        <v>0.6865915226343098</v>
       </c>
     </row>
     <row r="22">
@@ -7496,19 +7496,19 @@
         <v>29808</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21222</v>
+        <v>21712</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39835</v>
+        <v>40315</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3382844568164058</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2408460889403502</v>
+        <v>0.2464096384759805</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4520855977296551</v>
+        <v>0.4575358070453038</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -7517,19 +7517,19 @@
         <v>19088</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13190</v>
+        <v>13205</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26483</v>
+        <v>25977</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4131134327957628</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2854703982643497</v>
+        <v>0.285776379455153</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5731521123850919</v>
+        <v>0.5621945081024525</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>46</v>
@@ -7538,19 +7538,19 @@
         <v>48896</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37359</v>
+        <v>37784</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60263</v>
+        <v>60949</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3640255377603061</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.278136517542071</v>
+        <v>0.2812984078163742</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4486547081997052</v>
+        <v>0.4537598976269837</v>
       </c>
     </row>
     <row r="23">
@@ -7567,19 +7567,19 @@
         <v>22358</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15107</v>
+        <v>14475</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>32331</v>
+        <v>32515</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2537368012029306</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1714495910245372</v>
+        <v>0.1642767822626636</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3669263298801381</v>
+        <v>0.3690158468091288</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -7588,19 +7588,19 @@
         <v>12339</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7070</v>
+        <v>6903</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18737</v>
+        <v>18628</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2670446988383942</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1530161367382782</v>
+        <v>0.1493950915175495</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4055107726864192</v>
+        <v>0.4031593610695028</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -7609,19 +7609,19 @@
         <v>34697</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>23576</v>
+        <v>24947</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>44652</v>
+        <v>45578</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2583147025539007</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1755233846908544</v>
+        <v>0.1857329663313609</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3324294894765622</v>
+        <v>0.3393235400224043</v>
       </c>
     </row>
     <row r="24">
@@ -7638,19 +7638,19 @@
         <v>5110</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1908</v>
+        <v>1869</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10579</v>
+        <v>11070</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05799063120431752</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0216555703729504</v>
+        <v>0.02120718793136428</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1200649890455019</v>
+        <v>0.1256367344985727</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -7672,19 +7672,19 @@
         <v>5110</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1906</v>
+        <v>1836</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12047</v>
+        <v>11160</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03804192133248918</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0141880321865923</v>
+        <v>0.01367179955106384</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08969053013911231</v>
+        <v>0.08308355341838623</v>
       </c>
     </row>
     <row r="25">
@@ -7705,19 +7705,19 @@
         <v>40573</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30852</v>
+        <v>31024</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48465</v>
+        <v>48743</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.613401645587472</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4664325162151949</v>
+        <v>0.4690365636474482</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7327179146914852</v>
+        <v>0.7369267474834131</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -7726,19 +7726,19 @@
         <v>34632</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27443</v>
+        <v>27396</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40227</v>
+        <v>40130</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7421229615777911</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5880792401735396</v>
+        <v>0.5870554701399515</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8620095692977664</v>
+        <v>0.8599375536614834</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>66</v>
@@ -7747,19 +7747,19 @@
         <v>75205</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>63239</v>
+        <v>64398</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>85140</v>
+        <v>85451</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6666491885804847</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5605771799590175</v>
+        <v>0.5708493234128248</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7547241066829452</v>
+        <v>0.7574792427686319</v>
       </c>
     </row>
     <row r="26">
@@ -7776,19 +7776,19 @@
         <v>34736</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25465</v>
+        <v>25909</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43239</v>
+        <v>43579</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5251521760174518</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3849918334604564</v>
+        <v>0.3916996189368055</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6537030494593854</v>
+        <v>0.6588456339789001</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -7797,19 +7797,19 @@
         <v>27689</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>20081</v>
+        <v>20567</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34414</v>
+        <v>35543</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5933522249474569</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4303080069974683</v>
+        <v>0.4407273185574074</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.737462545008843</v>
+        <v>0.7616507327942128</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>55</v>
@@ -7818,19 +7818,19 @@
         <v>62425</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>51041</v>
+        <v>49703</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>72647</v>
+        <v>73740</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5533641703525558</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4524503395264355</v>
+        <v>0.4405917934472382</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6439776826887099</v>
+        <v>0.6536671853069314</v>
       </c>
     </row>
     <row r="27">
@@ -7847,19 +7847,19 @@
         <v>27105</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>18413</v>
+        <v>18530</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>36224</v>
+        <v>35990</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.409789903639977</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2783830242745736</v>
+        <v>0.2801416511224816</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5476549828508264</v>
+        <v>0.544115771858386</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>16</v>
@@ -7868,19 +7868,19 @@
         <v>18679</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11541</v>
+        <v>11852</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>25816</v>
+        <v>26240</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4002639737089219</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2473163779753993</v>
+        <v>0.2539709408031898</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5532095044698901</v>
+        <v>0.5622956254477122</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>38</v>
@@ -7889,19 +7889,19 @@
         <v>45784</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>35277</v>
+        <v>35508</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>56667</v>
+        <v>57726</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4058493568886493</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3127105673004891</v>
+        <v>0.3147608675317784</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5023225126722481</v>
+        <v>0.5117063607355112</v>
       </c>
     </row>
     <row r="28">
@@ -7918,19 +7918,19 @@
         <v>40862</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>32237</v>
+        <v>31498</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>49197</v>
+        <v>48589</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6177666014927471</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.487370688122543</v>
+        <v>0.4762026231333583</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7437815330162189</v>
+        <v>0.7345983265853984</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>32</v>
@@ -7939,19 +7939,19 @@
         <v>36377</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>29413</v>
+        <v>29227</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>41242</v>
+        <v>41120</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7795286549652899</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6302901761933236</v>
+        <v>0.6263021236801118</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8837646853197771</v>
+        <v>0.8811569648756369</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>66</v>
@@ -7960,19 +7960,19 @@
         <v>77239</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>65717</v>
+        <v>66390</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>86759</v>
+        <v>87043</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6846819513759401</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5825480043440059</v>
+        <v>0.5885155678995344</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7690723557165157</v>
+        <v>0.7715883002192759</v>
       </c>
     </row>
     <row r="29">
@@ -7989,19 +7989,19 @@
         <v>12393</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5780</v>
+        <v>6615</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20326</v>
+        <v>21352</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1873568530015333</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08738617190155533</v>
+        <v>0.100012157022384</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3072964911151124</v>
+        <v>0.3228097701132714</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -8010,19 +8010,19 @@
         <v>17210</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10472</v>
+        <v>10470</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24600</v>
+        <v>24743</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3687840595035882</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2244059820600919</v>
+        <v>0.2243582387976528</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.527154774398315</v>
+        <v>0.5302053125008315</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -8031,19 +8031,19 @@
         <v>29602</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>19809</v>
+        <v>20427</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>39763</v>
+        <v>40036</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2624069944951684</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1755921118737149</v>
+        <v>0.1810707921040371</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3524747459451957</v>
+        <v>0.3548932834828731</v>
       </c>
     </row>
     <row r="30">
@@ -8060,19 +8060,19 @@
         <v>22055</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14316</v>
+        <v>13470</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31841</v>
+        <v>31341</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3334327487473103</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2164363222728496</v>
+        <v>0.2036393627461281</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4813828636192978</v>
+        <v>0.4738363958225191</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>16</v>
@@ -8081,19 +8081,19 @@
         <v>17884</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11671</v>
+        <v>11589</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>25505</v>
+        <v>25202</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3832271734883193</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2500870507726978</v>
+        <v>0.2483338400331064</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5465508174755269</v>
+        <v>0.5400604753042584</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>33</v>
@@ -8102,19 +8102,19 @@
         <v>39938</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30090</v>
+        <v>29121</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>51655</v>
+        <v>51363</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3540309748593602</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.26673479514678</v>
+        <v>0.2581450057061133</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4578914052217995</v>
+        <v>0.4553017817656537</v>
       </c>
     </row>
     <row r="31">
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5321</v>
+        <v>4978</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0156348070937324</v>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08044942025556576</v>
+        <v>0.07525551635570962</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -8152,19 +8152,19 @@
         <v>3425</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9405</v>
+        <v>10124</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07338411245271786</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02011885361247737</v>
+        <v>0.01981814163133846</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2015427313569152</v>
+        <v>0.216944100944394</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -8173,19 +8173,19 @@
         <v>4459</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1042</v>
+        <v>1004</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10626</v>
+        <v>11352</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03952369135708521</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.009238479993741885</v>
+        <v>0.008897910215284754</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09418944066498312</v>
+        <v>0.1006328366670388</v>
       </c>
     </row>
     <row r="32">
@@ -8206,19 +8206,19 @@
         <v>259861</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>243591</v>
+        <v>243072</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>277740</v>
+        <v>276203</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7485020607478976</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7016366819750836</v>
+        <v>0.7001433891035106</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8000010312602527</v>
+        <v>0.7955732517251006</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>176</v>
@@ -8227,19 +8227,19 @@
         <v>183756</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>172193</v>
+        <v>172626</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>193936</v>
+        <v>193601</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8495516544384887</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7960905089015456</v>
+        <v>0.7980931011079589</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8966126212754721</v>
+        <v>0.8950642832091905</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>416</v>
@@ -8248,19 +8248,19 @@
         <v>443618</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>420271</v>
+        <v>424026</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>462619</v>
+        <v>463089</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7872914964945747</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.745857761862313</v>
+        <v>0.7525220912967815</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8210143880640568</v>
+        <v>0.8218485615565937</v>
       </c>
     </row>
     <row r="33">
@@ -8277,19 +8277,19 @@
         <v>149169</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>129893</v>
+        <v>129943</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>167539</v>
+        <v>170248</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4296640492074312</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3741422770207322</v>
+        <v>0.3742853614691275</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4825775370772888</v>
+        <v>0.4903815162584344</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>125</v>
@@ -8298,19 +8298,19 @@
         <v>131034</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>116520</v>
+        <v>116264</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>144939</v>
+        <v>145294</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6058053637045983</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5387029532001733</v>
+        <v>0.537519115903437</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.670087999540992</v>
+        <v>0.6717307811157897</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>259</v>
@@ -8319,19 +8319,19 @@
         <v>280203</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>255242</v>
+        <v>254535</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>304452</v>
+        <v>305314</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4972785932296829</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4529801789636654</v>
+        <v>0.4517255557146381</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5403138673688946</v>
+        <v>0.541842842873104</v>
       </c>
     </row>
     <row r="34">
@@ -8348,19 +8348,19 @@
         <v>135003</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>116036</v>
+        <v>117149</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>156609</v>
+        <v>152724</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3888619606186736</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3342294237239044</v>
+        <v>0.3374357840671912</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4510966244802004</v>
+        <v>0.4399059257966854</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>86</v>
@@ -8369,19 +8369,19 @@
         <v>89846</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>75091</v>
+        <v>75251</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>104947</v>
+        <v>104040</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4153820692280323</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3471657890681583</v>
+        <v>0.3479022951737886</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4851958805437624</v>
+        <v>0.4810040163889165</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>208</v>
@@ -8390,19 +8390,19 @@
         <v>224849</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>201243</v>
+        <v>200914</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>249278</v>
+        <v>248092</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3990421108926811</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3571477151274497</v>
+        <v>0.3565642922471807</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4423951452328585</v>
+        <v>0.4402900662480295</v>
       </c>
     </row>
     <row r="35">
@@ -8419,19 +8419,19 @@
         <v>208440</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>188278</v>
+        <v>189161</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>226672</v>
+        <v>226204</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.6003885740657668</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.5423144728649514</v>
+        <v>0.5448581273861866</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6529055534263758</v>
+        <v>0.6515571831274622</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>138</v>
@@ -8440,19 +8440,19 @@
         <v>145362</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>131536</v>
+        <v>130948</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>159067</v>
+        <v>160046</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.6720460150762854</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.6081218770139846</v>
+        <v>0.6054033415427434</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.7354085112642531</v>
+        <v>0.7399347560053867</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>331</v>
@@ -8461,19 +8461,19 @@
         <v>353802</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>329995</v>
+        <v>330500</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>377739</v>
+        <v>376765</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.6278953813900958</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.5856447671613045</v>
+        <v>0.5865414807166245</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.6703763840645485</v>
+        <v>0.6686475318443537</v>
       </c>
     </row>
     <row r="36">
@@ -8490,19 +8490,19 @@
         <v>95064</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>77940</v>
+        <v>78475</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>113828</v>
+        <v>113846</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2738210915611015</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2244977679910148</v>
+        <v>0.2260381599154805</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3278681021618932</v>
+        <v>0.3279198075074501</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>87</v>
@@ -8511,19 +8511,19 @@
         <v>89574</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>75644</v>
+        <v>75519</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>104695</v>
+        <v>105459</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4141223261300172</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3497218498504102</v>
+        <v>0.349145205809814</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.484033545160492</v>
+        <v>0.487562230691983</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>174</v>
@@ -8532,19 +8532,19 @@
         <v>184638</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>161808</v>
+        <v>160147</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>208155</v>
+        <v>206808</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3276778714325199</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2871620678059703</v>
+        <v>0.2842134548639414</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3694139133394479</v>
+        <v>0.3670231114091642</v>
       </c>
     </row>
     <row r="37">
@@ -8561,19 +8561,19 @@
         <v>82689</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>66995</v>
+        <v>65876</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>100639</v>
+        <v>101297</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2381762053402283</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1929714364115026</v>
+        <v>0.1897485423739533</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2898806496830991</v>
+        <v>0.2917749375886922</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>67</v>
@@ -8582,19 +8582,19 @@
         <v>70601</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>56103</v>
+        <v>56627</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>84640</v>
+        <v>83884</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3264073825259983</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.259377463026892</v>
+        <v>0.2617988119915161</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3913119486766963</v>
+        <v>0.3878154785327563</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>138</v>
@@ -8603,19 +8603,19 @@
         <v>153290</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>129872</v>
+        <v>132891</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>174592</v>
+        <v>178321</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2720450953902017</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2304844252582223</v>
+        <v>0.2358429918395491</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3098504751068403</v>
+        <v>0.3164680957986553</v>
       </c>
     </row>
     <row r="38">
@@ -8632,19 +8632,19 @@
         <v>12203</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>6419</v>
+        <v>6117</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>20113</v>
+        <v>20964</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.03515083151904762</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01848917469959154</v>
+        <v>0.01762013215377562</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05793329884740281</v>
+        <v>0.06038333023562183</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>5</v>
@@ -8653,19 +8653,19 @@
         <v>5334</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1926</v>
+        <v>1885</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>11788</v>
+        <v>12090</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02466260171940221</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.008903274207891901</v>
+        <v>0.008716335414728993</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.054498297357329</v>
+        <v>0.05589473092014268</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>17</v>
@@ -8674,19 +8674,19 @@
         <v>17538</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>11051</v>
+        <v>10313</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>27769</v>
+        <v>27576</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03112476371361506</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01961183457396409</v>
+        <v>0.018302282182935</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04928211816864982</v>
+        <v>0.04894002389888827</v>
       </c>
     </row>
     <row r="39">
@@ -8947,19 +8947,19 @@
         <v>51577</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45048</v>
+        <v>45614</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55272</v>
+        <v>55252</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8858740925369673</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7737313861798395</v>
+        <v>0.7834515299480086</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9493384893600821</v>
+        <v>0.9489899030729712</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -8968,19 +8968,19 @@
         <v>50079</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43512</v>
+        <v>43086</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54000</v>
+        <v>54172</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8624421088814974</v>
+        <v>0.8624421088814973</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7493533043104708</v>
+        <v>0.7420233452155395</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9299696145542012</v>
+        <v>0.9329455630714841</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>114</v>
@@ -8989,19 +8989,19 @@
         <v>101656</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93508</v>
+        <v>93171</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>107472</v>
+        <v>108421</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8741737996434891</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8041059504380972</v>
+        <v>0.8012121638837929</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9241862419216131</v>
+        <v>0.932345039241383</v>
       </c>
     </row>
     <row r="5">
@@ -9018,19 +9018,19 @@
         <v>28765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20931</v>
+        <v>20388</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36844</v>
+        <v>36639</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.494058364059391</v>
+        <v>0.4940583640593909</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3595083727439594</v>
+        <v>0.3501785392684664</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6328237376429542</v>
+        <v>0.6292898392338608</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -9039,19 +9039,19 @@
         <v>37221</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30940</v>
+        <v>30658</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43054</v>
+        <v>42746</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6410172492324525</v>
+        <v>0.6410172492324527</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5328481978826718</v>
+        <v>0.5279917947665375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7414722257291272</v>
+        <v>0.7361660009601679</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>72</v>
@@ -9060,19 +9060,19 @@
         <v>65986</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>55929</v>
+        <v>55549</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>76313</v>
+        <v>76400</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5674393472960557</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4809497711948326</v>
+        <v>0.4776841656343915</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6562383931510104</v>
+        <v>0.6569920453470931</v>
       </c>
     </row>
     <row r="6">
@@ -9089,19 +9089,19 @@
         <v>22509</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15209</v>
+        <v>15183</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30878</v>
+        <v>31019</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3929786807433776</v>
+        <v>0.3929786807433775</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2655411697921352</v>
+        <v>0.2650843159776194</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5391051680874656</v>
+        <v>0.5415644460575444</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -9110,19 +9110,19 @@
         <v>34193</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27301</v>
+        <v>26947</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40744</v>
+        <v>40610</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5888717969611407</v>
+        <v>0.5888717969611406</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4701698008447369</v>
+        <v>0.4640765704562805</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7016801613811767</v>
+        <v>0.6993723581762271</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>67</v>
@@ -9131,19 +9131,19 @@
         <v>56702</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46044</v>
+        <v>46339</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67391</v>
+        <v>67481</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.4915952457081605</v>
+        <v>0.4915952457081604</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3991941691732178</v>
+        <v>0.4017518680212063</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5842618024867781</v>
+        <v>0.585048254205469</v>
       </c>
     </row>
     <row r="7">
@@ -9160,19 +9160,19 @@
         <v>44196</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36357</v>
+        <v>35736</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50612</v>
+        <v>50117</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7590969831733467</v>
+        <v>0.7590969831733466</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6244512746465104</v>
+        <v>0.6137964507472218</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8692997236503602</v>
+        <v>0.8607871569726872</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -9181,19 +9181,19 @@
         <v>42324</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35536</v>
+        <v>36084</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48006</v>
+        <v>47958</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7289004897926994</v>
+        <v>0.7289004897926995</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6119902321578493</v>
+        <v>0.6214271256341984</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8267418834770424</v>
+        <v>0.8259278450863058</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -9202,19 +9202,19 @@
         <v>86520</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75860</v>
+        <v>76826</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94146</v>
+        <v>94572</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7440189674959556</v>
+        <v>0.7440189674959555</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6523450717024585</v>
+        <v>0.6606533808733109</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8095900911387116</v>
+        <v>0.8132578619267532</v>
       </c>
     </row>
     <row r="8">
@@ -9231,19 +9231,19 @@
         <v>11007</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5655</v>
+        <v>5483</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18088</v>
+        <v>18053</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1890486319990552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09712501198878858</v>
+        <v>0.0941730973375627</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3106738785559698</v>
+        <v>0.3100702118098319</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -9252,19 +9252,19 @@
         <v>20548</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14461</v>
+        <v>14453</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27855</v>
+        <v>27812</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3538769367800386</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2490438240363929</v>
+        <v>0.2489015036557602</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.479717802322319</v>
+        <v>0.4789770144930112</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -9273,19 +9273,19 @@
         <v>31555</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22328</v>
+        <v>23357</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>41608</v>
+        <v>41695</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2713523529058763</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1920030479235885</v>
+        <v>0.2008570952889847</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3577974296635646</v>
+        <v>0.3585478923608434</v>
       </c>
     </row>
     <row r="9">
@@ -9302,19 +9302,19 @@
         <v>10877</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5557</v>
+        <v>5848</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18097</v>
+        <v>18237</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1868277466087764</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09544059274183615</v>
+        <v>0.1004516594814619</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3108212881552254</v>
+        <v>0.3132251174563138</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>28</v>
@@ -9323,19 +9323,19 @@
         <v>20508</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14327</v>
+        <v>14389</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>27563</v>
+        <v>27704</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3531908111010612</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2467446164921302</v>
+        <v>0.2477991027165277</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4746852358341294</v>
+        <v>0.4771126192533766</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>38</v>
@@ -9344,19 +9344,19 @@
         <v>31386</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>22589</v>
+        <v>22577</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40560</v>
+        <v>40536</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2698978191146497</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1942474760524054</v>
+        <v>0.1941432604494387</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3487885017372714</v>
+        <v>0.348583360333436</v>
       </c>
     </row>
     <row r="10">
@@ -9373,19 +9373,19 @@
         <v>6247</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2278</v>
+        <v>2481</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12621</v>
+        <v>12637</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1072968231458553</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0391321095440296</v>
+        <v>0.04261210887376714</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2167788250127763</v>
+        <v>0.2170518275276205</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -9394,19 +9394,19 @@
         <v>8112</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4272</v>
+        <v>4013</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14839</v>
+        <v>13910</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.139702919599998</v>
+        <v>0.1397029195999981</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07357159321967172</v>
+        <v>0.0691041830927816</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2555584137988833</v>
+        <v>0.2395468938429165</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -9415,19 +9415,19 @@
         <v>14359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8285</v>
+        <v>8253</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22348</v>
+        <v>22218</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1234781599725931</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07124140259636498</v>
+        <v>0.0709667480132613</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1921764134096612</v>
+        <v>0.1910569463272605</v>
       </c>
     </row>
     <row r="11">
@@ -9448,19 +9448,19 @@
         <v>104694</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93991</v>
+        <v>94526</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>112655</v>
+        <v>112667</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8237036488325995</v>
+        <v>0.8237036488325996</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7394913800626387</v>
+        <v>0.7437040281827095</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8863388347460845</v>
+        <v>0.886432355005026</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>118</v>
@@ -9469,19 +9469,19 @@
         <v>90555</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83381</v>
+        <v>82949</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>95932</v>
+        <v>95798</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8651837909984467</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.796636502245923</v>
+        <v>0.7925093719421532</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9165496301545021</v>
+        <v>0.9152744247551517</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>203</v>
@@ -9490,19 +9490,19 @@
         <v>195250</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>183108</v>
+        <v>183162</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>204675</v>
+        <v>204526</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8424359851213012</v>
+        <v>0.8424359851213014</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7900474221514682</v>
+        <v>0.7902825167859056</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8831010864895468</v>
+        <v>0.8824582990926511</v>
       </c>
     </row>
     <row r="12">
@@ -9519,19 +9519,19 @@
         <v>72780</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59732</v>
+        <v>60961</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85090</v>
+        <v>84594</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5726140545357205</v>
+        <v>0.5726140545357206</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4699562119672861</v>
+        <v>0.4796193485849389</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6694584370077034</v>
+        <v>0.6655624128614548</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>86</v>
@@ -9540,19 +9540,19 @@
         <v>66187</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>57241</v>
+        <v>56651</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>74676</v>
+        <v>74978</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6323615640540515</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5468948787866983</v>
+        <v>0.54125878961792</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7134666273709803</v>
+        <v>0.7163568063578981</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>146</v>
@@ -9561,19 +9561,19 @@
         <v>138967</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>122299</v>
+        <v>122623</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>154096</v>
+        <v>154019</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5995958916816718</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5276772381063989</v>
+        <v>0.5290749409143206</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6648706232977175</v>
+        <v>0.6645404531826169</v>
       </c>
     </row>
     <row r="13">
@@ -9590,19 +9590,19 @@
         <v>46751</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34289</v>
+        <v>34319</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60307</v>
+        <v>60016</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.37128315817008</v>
+        <v>0.3712831581700801</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2723105801378838</v>
+        <v>0.2725495159114986</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4789395371485242</v>
+        <v>0.4766282789591114</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -9611,19 +9611,19 @@
         <v>51161</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41491</v>
+        <v>42165</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60381</v>
+        <v>61064</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4921244724238827</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3991011389707881</v>
+        <v>0.4055903151699104</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5808126341962579</v>
+        <v>0.5873756292473697</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -9632,19 +9632,19 @@
         <v>97913</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81118</v>
+        <v>81678</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>113688</v>
+        <v>113492</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4259327723943842</v>
+        <v>0.4259327723943843</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3528724646278267</v>
+        <v>0.3553116953303402</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4945574120034238</v>
+        <v>0.4937069097791877</v>
       </c>
     </row>
     <row r="14">
@@ -9661,19 +9661,19 @@
         <v>82126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>69678</v>
+        <v>69809</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93587</v>
+        <v>92222</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6461425184649362</v>
+        <v>0.6461425184649361</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5482017114351344</v>
+        <v>0.5492335227236712</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7363149203356969</v>
+        <v>0.725574977104505</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>88</v>
@@ -9682,19 +9682,19 @@
         <v>65264</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55589</v>
+        <v>55941</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73597</v>
+        <v>74608</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6235465520856057</v>
+        <v>0.6235465520856056</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5311105085012846</v>
+        <v>0.5344728801722423</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7031617044887474</v>
+        <v>0.7128170418605062</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>156</v>
@@ -9703,19 +9703,19 @@
         <v>147390</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132887</v>
+        <v>132697</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>162350</v>
+        <v>160922</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6359382322960635</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5733634268154276</v>
+        <v>0.5725417589720082</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7004830578334509</v>
+        <v>0.6943249998113173</v>
       </c>
     </row>
     <row r="15">
@@ -9732,19 +9732,19 @@
         <v>32572</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22004</v>
+        <v>23246</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45207</v>
+        <v>45188</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2562637918603977</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.173124350703472</v>
+        <v>0.1828891972387264</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3556759618859721</v>
+        <v>0.355525532488545</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>49</v>
@@ -9753,19 +9753,19 @@
         <v>38272</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>29199</v>
+        <v>29403</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47501</v>
+        <v>47185</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3656617455130511</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2789704555581256</v>
+        <v>0.2809197260530851</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.453832684119001</v>
+        <v>0.4508190332999595</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>72</v>
@@ -9774,19 +9774,19 @@
         <v>70844</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>56758</v>
+        <v>55050</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>86962</v>
+        <v>86178</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3056676547720492</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2448934814718682</v>
+        <v>0.2375234825106488</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3752123243566199</v>
+        <v>0.3718279729962966</v>
       </c>
     </row>
     <row r="16">
@@ -9803,19 +9803,19 @@
         <v>24112</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14969</v>
+        <v>15337</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36250</v>
+        <v>35138</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1897051148630343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.11776908965088</v>
+        <v>0.1206672282029436</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2852010475678732</v>
+        <v>0.2764584209196539</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -9824,19 +9824,19 @@
         <v>25527</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17667</v>
+        <v>18602</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33076</v>
+        <v>33538</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2438943260253921</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1687967010407815</v>
+        <v>0.1777244447130731</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3160146734470104</v>
+        <v>0.3204328000214315</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -9845,19 +9845,19 @@
         <v>49639</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38179</v>
+        <v>37098</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65937</v>
+        <v>63362</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2141768373237288</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1647289529758599</v>
+        <v>0.1600671163978239</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2844948589182751</v>
+        <v>0.2733860106232532</v>
       </c>
     </row>
     <row r="17">
@@ -9874,19 +9874,19 @@
         <v>6430</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2422</v>
+        <v>2835</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14478</v>
+        <v>13519</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05058549446886983</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01905626827812634</v>
+        <v>0.02230869825883471</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1139075128091263</v>
+        <v>0.1063617263206623</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -9895,19 +9895,19 @@
         <v>4751</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1959</v>
+        <v>2068</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9186</v>
+        <v>9510</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04538974971257525</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01871423690221298</v>
+        <v>0.01975980956421663</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08776721351765</v>
+        <v>0.09085714996153593</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -9916,19 +9916,19 @@
         <v>11180</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5795</v>
+        <v>6066</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19388</v>
+        <v>18569</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04823910815090524</v>
+        <v>0.04823910815090525</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.025004764165157</v>
+        <v>0.02617366956863185</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08365111560387029</v>
+        <v>0.08012042952829865</v>
       </c>
     </row>
     <row r="18">
@@ -9949,19 +9949,19 @@
         <v>69835</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60214</v>
+        <v>60320</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>77779</v>
+        <v>79203</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7226318358690761</v>
+        <v>0.7226318358690762</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.623077921237854</v>
+        <v>0.6241728711046433</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8048285562745799</v>
+        <v>0.8195679511154569</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>104</v>
@@ -9970,19 +9970,19 @@
         <v>68985</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>61088</v>
+        <v>61912</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>75984</v>
+        <v>75663</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.730522573371272</v>
+        <v>0.7305225733712721</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6468920307731068</v>
+        <v>0.6556223331516481</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.804628834981426</v>
+        <v>0.8012340846786072</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>166</v>
@@ -9991,19 +9991,19 @@
         <v>138821</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>126221</v>
+        <v>126458</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>149871</v>
+        <v>151022</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.7265316477586808</v>
+        <v>0.7265316477586807</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6605912043331608</v>
+        <v>0.6618330440006955</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7843671762807853</v>
+        <v>0.7903898459649266</v>
       </c>
     </row>
     <row r="19">
@@ -10020,19 +10020,19 @@
         <v>62586</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51384</v>
+        <v>52712</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72276</v>
+        <v>71915</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.6476196948208012</v>
+        <v>0.6476196948208014</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5317024508338593</v>
+        <v>0.545444142720011</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7478940629526433</v>
+        <v>0.744150990349103</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>86</v>
@@ -10041,19 +10041,19 @@
         <v>61654</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54477</v>
+        <v>54219</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69135</v>
+        <v>69169</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6528829096934047</v>
+        <v>0.6528829096934048</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5768864332451149</v>
+        <v>0.5741509584852268</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7321059292171508</v>
+        <v>0.7324627594344907</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>139</v>
@@ -10062,19 +10062,19 @@
         <v>124240</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>109083</v>
+        <v>111791</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>136796</v>
+        <v>136963</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.650220915293794</v>
+        <v>0.6502209152937939</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5708950868429831</v>
+        <v>0.5850682017782579</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7159347823549552</v>
+        <v>0.7168080094640928</v>
       </c>
     </row>
     <row r="20">
@@ -10091,19 +10091,19 @@
         <v>41150</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30916</v>
+        <v>31335</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52778</v>
+        <v>52709</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4258058785551021</v>
+        <v>0.4258058785551022</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3199074105707322</v>
+        <v>0.3242490806122755</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5461252718703644</v>
+        <v>0.5454151962097481</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -10112,19 +10112,19 @@
         <v>31137</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23832</v>
+        <v>23561</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39148</v>
+        <v>40252</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3297242071775727</v>
+        <v>0.3297242071775728</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2523730248755194</v>
+        <v>0.2495041365285991</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4145613909839828</v>
+        <v>0.4262457691087407</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -10133,19 +10133,19 @@
         <v>72287</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>58513</v>
+        <v>59399</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>85562</v>
+        <v>86127</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.378319766603347</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3062320147138937</v>
+        <v>0.3108732903070128</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4477957891098608</v>
+        <v>0.4507562077255723</v>
       </c>
     </row>
     <row r="21">
@@ -10162,19 +10162,19 @@
         <v>62509</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>52120</v>
+        <v>51691</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>71180</v>
+        <v>72536</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6468254034766091</v>
+        <v>0.6468254034766093</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5393253512435801</v>
+        <v>0.5348818751834783</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7365430569520541</v>
+        <v>0.7505789639934128</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>83</v>
@@ -10183,19 +10183,19 @@
         <v>54445</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>46784</v>
+        <v>45966</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>62849</v>
+        <v>62122</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5765504545833452</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4954156210474594</v>
+        <v>0.4867598290060241</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6655432312605086</v>
+        <v>0.6578383513498488</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>138</v>
@@ -10204,19 +10204,19 @@
         <v>116955</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>103373</v>
+        <v>102287</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>129931</v>
+        <v>129141</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6120936586734077</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5410140638888508</v>
+        <v>0.5353305120710645</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6800081771337222</v>
+        <v>0.6758710191528408</v>
       </c>
     </row>
     <row r="22">
@@ -10233,19 +10233,19 @@
         <v>29190</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19055</v>
+        <v>18831</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41085</v>
+        <v>41256</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3020522074423193</v>
+        <v>0.3020522074423195</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1971734009386617</v>
+        <v>0.1948534576849476</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4251316101132835</v>
+        <v>0.4269079904258914</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -10254,19 +10254,19 @@
         <v>24761</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18056</v>
+        <v>17986</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32456</v>
+        <v>32245</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2622069048245139</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.191202094956523</v>
+        <v>0.1904585786060167</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3436893315541635</v>
+        <v>0.3414609184069319</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -10275,19 +10275,19 @@
         <v>53951</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41741</v>
+        <v>42418</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68890</v>
+        <v>68716</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2823596014152433</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2184535812845882</v>
+        <v>0.2220010885371811</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3605411924264707</v>
+        <v>0.3596321872360635</v>
       </c>
     </row>
     <row r="23">
@@ -10304,19 +10304,19 @@
         <v>25067</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16077</v>
+        <v>16465</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>36294</v>
+        <v>37784</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2593850727119185</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1663643529437408</v>
+        <v>0.1703739686292199</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3755613342389293</v>
+        <v>0.3909734819515286</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -10325,19 +10325,19 @@
         <v>20677</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14479</v>
+        <v>14395</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>27843</v>
+        <v>27718</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2189543159453875</v>
+        <v>0.2189543159453876</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1533291097922898</v>
+        <v>0.1524353362361503</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2948422212953219</v>
+        <v>0.2935216542068619</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>50</v>
@@ -10346,19 +10346,19 @@
         <v>45743</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>33606</v>
+        <v>35066</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>60118</v>
+        <v>62094</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2394031197068975</v>
+        <v>0.2394031197068974</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1758804331283819</v>
+        <v>0.1835193097105061</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3146314830943786</v>
+        <v>0.3249755509954811</v>
       </c>
     </row>
     <row r="24">
@@ -10375,19 +10375,19 @@
         <v>14427</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8009</v>
+        <v>7788</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27223</v>
+        <v>26000</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1492860504482471</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08287174678371201</v>
+        <v>0.08059102711710391</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2816945444670944</v>
+        <v>0.2690371978681273</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -10396,19 +10396,19 @@
         <v>9201</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5239</v>
+        <v>5275</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14953</v>
+        <v>15302</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.09743921955478456</v>
+        <v>0.09743921955478459</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05547351533430548</v>
+        <v>0.05585737089773851</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1583490443521672</v>
+        <v>0.1620419162519759</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -10417,19 +10417,19 @@
         <v>23628</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15859</v>
+        <v>15644</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>37235</v>
+        <v>36204</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1236619706330986</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08299996748450775</v>
+        <v>0.08187562439117115</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1948722120764604</v>
+        <v>0.1894778139682544</v>
       </c>
     </row>
     <row r="25">
@@ -10450,19 +10450,19 @@
         <v>59294</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47823</v>
+        <v>47535</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>70505</v>
+        <v>69834</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6021444655373295</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4856554097157008</v>
+        <v>0.4827250666428703</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7159937318995342</v>
+        <v>0.7091756324040942</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>76</v>
@@ -10471,19 +10471,19 @@
         <v>53162</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>45499</v>
+        <v>44424</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61845</v>
+        <v>60396</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.6494707173498127</v>
+        <v>0.6494707173498128</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5558484311598042</v>
+        <v>0.542716291318459</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7555492533655851</v>
+        <v>0.7378397032681007</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>127</v>
@@ -10492,19 +10492,19 @@
         <v>112457</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>98412</v>
+        <v>98790</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>125286</v>
+        <v>124885</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.6236270867157296</v>
+        <v>0.6236270867157295</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5457408891796469</v>
+        <v>0.5478395495031608</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6947706992929359</v>
+        <v>0.692546895872035</v>
       </c>
     </row>
     <row r="26">
@@ -10521,19 +10521,19 @@
         <v>72210</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>60138</v>
+        <v>60825</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>80765</v>
+        <v>81543</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7333069532640175</v>
+        <v>0.7333069532640176</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6107078423905196</v>
+        <v>0.6176832157852755</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8201871234225548</v>
+        <v>0.8280862631126574</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>88</v>
@@ -10542,19 +10542,19 @@
         <v>64524</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>57744</v>
+        <v>57911</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>69824</v>
+        <v>70729</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7882689283717629</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7054406137497095</v>
+        <v>0.7074884087564952</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8530231540146656</v>
+        <v>0.8640769890771094</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>151</v>
@@ -10563,19 +10563,19 @@
         <v>136734</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>122813</v>
+        <v>123522</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>146845</v>
+        <v>147825</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7582556285813584</v>
+        <v>0.7582556285813582</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.681056154749815</v>
+        <v>0.6849911206105175</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.814327323822161</v>
+        <v>0.8197588912090766</v>
       </c>
     </row>
     <row r="27">
@@ -10592,19 +10592,19 @@
         <v>27298</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17261</v>
+        <v>17730</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>39577</v>
+        <v>39636</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2792879467035868</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1765997209177133</v>
+        <v>0.1813985470331839</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4049067635437777</v>
+        <v>0.4055103984050199</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>37</v>
@@ -10613,19 +10613,19 @@
         <v>28823</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>21263</v>
+        <v>22614</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>36615</v>
+        <v>37371</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3521219228430174</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2597597565087559</v>
+        <v>0.2762629053249306</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.44732028004719</v>
+        <v>0.4565489871128192</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>57</v>
@@ -10634,19 +10634,19 @@
         <v>56121</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>42822</v>
+        <v>44293</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>70559</v>
+        <v>70333</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3124833256351874</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2384328273148389</v>
+        <v>0.246621064789779</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3928698982362808</v>
+        <v>0.3916156027036438</v>
       </c>
     </row>
     <row r="28">
@@ -10663,19 +10663,19 @@
         <v>52654</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>41091</v>
+        <v>41562</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>62969</v>
+        <v>64407</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5347135342612271</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4172820198526554</v>
+        <v>0.4220702942202815</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6394650490714516</v>
+        <v>0.6540644924738147</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>61</v>
@@ -10684,19 +10684,19 @@
         <v>44926</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>36826</v>
+        <v>36916</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>52753</v>
+        <v>52567</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5488536411008119</v>
+        <v>0.548853641100812</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4498888239617719</v>
+        <v>0.4509921989832303</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6444720451236814</v>
+        <v>0.6421980857203342</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>106</v>
@@ -10705,19 +10705,19 @@
         <v>97581</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>84511</v>
+        <v>84863</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>111269</v>
+        <v>110983</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.5411320978918417</v>
+        <v>0.5411320978918416</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4686566297338406</v>
+        <v>0.4706048846976311</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.61704030816735</v>
+        <v>0.6154552352407731</v>
       </c>
     </row>
     <row r="29">
@@ -10734,19 +10734,19 @@
         <v>24365</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15623</v>
+        <v>14795</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>35253</v>
+        <v>34562</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2474317324208623</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1586582559335716</v>
+        <v>0.1502442147654557</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3580035732277035</v>
+        <v>0.3509781821458797</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>38</v>
@@ -10755,19 +10755,19 @@
         <v>30641</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23136</v>
+        <v>23491</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>38600</v>
+        <v>39248</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3743341914534789</v>
+        <v>0.374334191453479</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2826483165135987</v>
+        <v>0.2869794448239866</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4715630864170511</v>
+        <v>0.4794842662861377</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>58</v>
@@ -10776,19 +10776,19 @@
         <v>55006</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>43478</v>
+        <v>42322</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>68055</v>
+        <v>69512</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3050360714419819</v>
+        <v>0.3050360714419817</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2411043529558113</v>
+        <v>0.2346932587974976</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3773971583635841</v>
+        <v>0.3854777961167312</v>
       </c>
     </row>
     <row r="30">
@@ -10805,19 +10805,19 @@
         <v>17381</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10058</v>
+        <v>10039</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27526</v>
+        <v>27357</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.176509636366016</v>
+        <v>0.1765096363660161</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1021416779169902</v>
+        <v>0.1019457041798119</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.279531292825112</v>
+        <v>0.2778124058424881</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>38</v>
@@ -10826,19 +10826,19 @@
         <v>28083</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>20619</v>
+        <v>21352</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>36341</v>
+        <v>36168</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3430813929234809</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2518985161888333</v>
+        <v>0.2608551506230004</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4439651087752662</v>
+        <v>0.4418572877668681</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>52</v>
@@ -10847,19 +10847,19 @@
         <v>45464</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>35560</v>
+        <v>35515</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>58533</v>
+        <v>58624</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2521209051249091</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.19719603544995</v>
+        <v>0.1969498993731027</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3245950506408322</v>
+        <v>0.3250975554432451</v>
       </c>
     </row>
     <row r="31">
@@ -10876,19 +10876,19 @@
         <v>11503</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5545</v>
+        <v>5434</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22015</v>
+        <v>20898</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1168173757989454</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05631211924751227</v>
+        <v>0.05517895251064217</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2235641155144187</v>
+        <v>0.2122208800773761</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>10</v>
@@ -10897,19 +10897,19 @@
         <v>9292</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4677</v>
+        <v>4534</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>19111</v>
+        <v>17497</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1135152868746145</v>
+        <v>0.1135152868746146</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0571356419301612</v>
+        <v>0.05538974978477161</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2334741560361152</v>
+        <v>0.2137591902434915</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>19</v>
@@ -10918,19 +10918,19 @@
         <v>20795</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>12774</v>
+        <v>12692</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>31766</v>
+        <v>32047</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1153184714331431</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07083966044420516</v>
+        <v>0.07038178879963307</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1761573747344193</v>
+        <v>0.1777182833128146</v>
       </c>
     </row>
     <row r="32">
@@ -10951,19 +10951,19 @@
         <v>285401</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>268485</v>
+        <v>264639</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>304644</v>
+        <v>302085</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7501952948596753</v>
+        <v>0.7501952948596752</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.705731813863957</v>
+        <v>0.6956212144547802</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8007777844363104</v>
+        <v>0.7940527521457857</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>366</v>
@@ -10972,19 +10972,19 @@
         <v>262782</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>246285</v>
+        <v>248947</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>275340</v>
+        <v>276105</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7751216349072314</v>
+        <v>0.7751216349072313</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7264626192785294</v>
+        <v>0.7343127447075947</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8121657423009924</v>
+        <v>0.8144204167192849</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>610</v>
@@ -10993,19 +10993,19 @@
         <v>548182</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>524267</v>
+        <v>525925</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>570266</v>
+        <v>570125</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7619410294742855</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7287000313845631</v>
+        <v>0.7310043294278075</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7926357754562325</v>
+        <v>0.7924405059948955</v>
       </c>
     </row>
     <row r="33">
@@ -11022,19 +11022,19 @@
         <v>236341</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>213579</v>
+        <v>213404</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>258559</v>
+        <v>256049</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6212387819947968</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.561406170115745</v>
+        <v>0.5609482023121865</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.679641015436336</v>
+        <v>0.6730419435000292</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>307</v>
@@ -11043,19 +11043,19 @@
         <v>229586</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>215078</v>
+        <v>214784</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>245045</v>
+        <v>245462</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6772034151408991</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.6344118884891821</v>
+        <v>0.6335426424061905</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7228051665963442</v>
+        <v>0.7240325888120923</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>508</v>
@@ -11064,19 +11064,19 @@
         <v>465926</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>439521</v>
+        <v>437320</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>490679</v>
+        <v>490704</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.6476103121706671</v>
+        <v>0.647610312170667</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6109083304527325</v>
+        <v>0.6078486093178744</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6820153725797535</v>
+        <v>0.6820494460783771</v>
       </c>
     </row>
     <row r="34">
@@ -11093,19 +11093,19 @@
         <v>137708</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>117954</v>
+        <v>117984</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>161652</v>
+        <v>160906</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.3647144757852907</v>
+        <v>0.3647144757852906</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3123969653761526</v>
+        <v>0.312477394798057</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4281310149948697</v>
+        <v>0.4261544273852849</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>194</v>
@@ -11114,19 +11114,19 @@
         <v>145315</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>130243</v>
+        <v>130349</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>161409</v>
+        <v>161762</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4295254697667731</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3849762939872851</v>
+        <v>0.3852888824443764</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4770977748905295</v>
+        <v>0.478140818069718</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>302</v>
@@ -11135,19 +11135,19 @@
         <v>283022</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>255892</v>
+        <v>256171</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>312892</v>
+        <v>309569</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3953427434142631</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.357445076190225</v>
+        <v>0.3578355848396301</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4370662971986858</v>
+        <v>0.43242484069334</v>
       </c>
     </row>
     <row r="35">
@@ -11164,19 +11164,19 @@
         <v>241485</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>220858</v>
+        <v>220061</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>261754</v>
+        <v>261236</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.6347603131688833</v>
+        <v>0.6347603131688832</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.5805409110909212</v>
+        <v>0.5784457199122509</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6880380401970538</v>
+        <v>0.6866765162934891</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>289</v>
@@ -11185,19 +11185,19 @@
         <v>206960</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>191501</v>
+        <v>192131</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>221705</v>
+        <v>223066</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.6104662043247425</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.5648657666810111</v>
+        <v>0.5667253797240277</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.6539583303724943</v>
+        <v>0.6579737962893775</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>497</v>
@@ -11206,19 +11206,19 @@
         <v>448445</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>420713</v>
+        <v>423292</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>471322</v>
+        <v>474996</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.6233124971382381</v>
+        <v>0.623312497138238</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.5847666711281359</v>
+        <v>0.5883504606677085</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.655110347109183</v>
+        <v>0.6602169325472689</v>
       </c>
     </row>
     <row r="36">
@@ -11235,19 +11235,19 @@
         <v>97134</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>79171</v>
+        <v>78482</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>118527</v>
+        <v>118516</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2553224434764436</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2081052971254379</v>
+        <v>0.2062950144952987</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3115564091688222</v>
+        <v>0.311528488011582</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>148</v>
@@ -11256,19 +11256,19 @@
         <v>114223</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>98128</v>
+        <v>99963</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>130944</v>
+        <v>129518</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3369201094334314</v>
+        <v>0.3369201094334315</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2894458850826949</v>
+        <v>0.2948592402287998</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3862421112917782</v>
+        <v>0.3820356994392497</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>222</v>
@@ -11277,19 +11277,19 @@
         <v>211356</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>187149</v>
+        <v>187718</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>236606</v>
+        <v>238883</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2937727144618284</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2601262529341806</v>
+        <v>0.2609173303200047</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3288685018213178</v>
+        <v>0.3320331008662774</v>
       </c>
     </row>
     <row r="37">
@@ -11306,19 +11306,19 @@
         <v>77437</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>60137</v>
+        <v>59931</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>98895</v>
+        <v>98349</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.203549616872839</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1580740205491477</v>
+        <v>0.1575323745155926</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2599526166558178</v>
+        <v>0.2585170111227104</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>131</v>
@@ -11327,19 +11327,19 @@
         <v>94795</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>81150</v>
+        <v>80664</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>110989</v>
+        <v>110281</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.279615491971867</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2393670715876761</v>
+        <v>0.2379329042502664</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3273807780981681</v>
+        <v>0.3252940021365717</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>192</v>
@@ -11348,19 +11348,19 @@
         <v>172233</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>150951</v>
+        <v>148760</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>196933</v>
+        <v>197705</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2393932096520708</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2098126425274849</v>
+        <v>0.2067676212335737</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2737257011744659</v>
+        <v>0.2747985284179002</v>
       </c>
     </row>
     <row r="38">
@@ -11377,19 +11377,19 @@
         <v>38607</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>28513</v>
+        <v>27488</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>55004</v>
+        <v>54226</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1014803135997061</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07494807128406764</v>
+        <v>0.07225426370324879</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1445816089800437</v>
+        <v>0.1425355968886125</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>40</v>
@@ -11398,19 +11398,19 @@
         <v>31356</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>22471</v>
+        <v>22878</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>42780</v>
+        <v>42407</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.09249020317327782</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06628084995728854</v>
+        <v>0.06748358490663993</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1261859764968429</v>
+        <v>0.1250860931648421</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>74</v>
@@ -11419,19 +11419,19 @@
         <v>69963</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>55049</v>
+        <v>54819</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>89436</v>
+        <v>89040</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.09724401372481863</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.07651503828335823</v>
+        <v>0.07619556034199514</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1243107140219865</v>
+        <v>0.1237602889337896</v>
       </c>
     </row>
     <row r="39">
